--- a/20230814_raw_data_100087848963.xlsx
+++ b/20230814_raw_data_100087848963.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE32370-FF35-453B-8101-1266F29817A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B72F2-283B-4A32-8649-2CA103B38961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_963" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -321,21 +321,6 @@
     <t>Memo Strata share of insurance</t>
   </si>
   <si>
-    <t>EDWIN ALBERT IMHOFF</t>
-  </si>
-  <si>
-    <t>SIDDHARTH SINHA</t>
-  </si>
-  <si>
-    <t>XIAOPENG FENG</t>
-  </si>
-  <si>
-    <t>TRACY CARRIER</t>
-  </si>
-  <si>
-    <t>DONGLI LIU</t>
-  </si>
-  <si>
     <t>Ref 20230801214714813541</t>
   </si>
   <si>
@@ -402,9 +387,6 @@
     <t>Memo FUND SHARES</t>
   </si>
   <si>
-    <t>CONTINGENCY 100087849375</t>
-  </si>
-  <si>
     <t>Interest credited to account</t>
   </si>
   <si>
@@ -420,15 +402,9 @@
     <t>Memo Funding Contingency</t>
   </si>
   <si>
-    <t>Independent Business Account 100087848963</t>
-  </si>
-  <si>
     <t>FUND SHARES</t>
   </si>
   <si>
-    <t>VANCITY</t>
-  </si>
-  <si>
     <t>payer/payee</t>
   </si>
   <si>
@@ -466,6 +442,27 @@
   </si>
   <si>
     <t>Insurance Payment</t>
+  </si>
+  <si>
+    <t>XP F</t>
+  </si>
+  <si>
+    <t>DL L</t>
+  </si>
+  <si>
+    <t>EA I</t>
+  </si>
+  <si>
+    <t>TC C</t>
+  </si>
+  <si>
+    <t>SH S</t>
+  </si>
+  <si>
+    <t>MF INSURANCE</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -725,31 +722,28 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,16 +755,19 @@
     <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,7 +1058,7 @@
   <dimension ref="A1:G269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1088,30 +1085,28 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>125</v>
-      </c>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>45140</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38">
-        <v>150</v>
-      </c>
-      <c r="D2" s="39">
+      <c r="C2" s="37">
+        <v>150</v>
+      </c>
+      <c r="D2" s="38">
         <v>9955</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.6">
       <c r="A3" s="30"/>
       <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="36"/>
+        <v>92</v>
+      </c>
+      <c r="C3" s="31"/>
       <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="30.6">
@@ -1119,7 +1114,7 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="20.399999999999999">
@@ -1129,28 +1124,28 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33">
-        <v>150</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="C5" s="28">
+        <v>150</v>
+      </c>
+      <c r="D5" s="29">
         <v>9805</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30.6">
       <c r="A6" s="27"/>
       <c r="B6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+        <v>93</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:7" ht="20.399999999999999">
       <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="20.399999999999999">
       <c r="A8" s="30">
@@ -1159,7 +1154,7 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="31">
         <v>1500</v>
       </c>
       <c r="D8" s="32">
@@ -1169,9 +1164,9 @@
     <row r="9" spans="1:7" ht="30.6">
       <c r="A9" s="30"/>
       <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="30.6">
@@ -1179,7 +1174,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="20.399999999999999">
@@ -1189,28 +1184,28 @@
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="33">
-        <v>150</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="C11" s="28">
+        <v>150</v>
+      </c>
+      <c r="D11" s="29">
         <v>8155</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.6">
       <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="30.6">
       <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="20.399999999999999">
       <c r="A14" s="30">
@@ -1219,7 +1214,7 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="31">
         <v>150</v>
       </c>
       <c r="D14" s="32">
@@ -1229,9 +1224,9 @@
     <row r="15" spans="1:7" ht="30.6">
       <c r="A15" s="30"/>
       <c r="B15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="36"/>
+        <v>96</v>
+      </c>
+      <c r="C15" s="31"/>
       <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="30.6">
@@ -1239,7 +1234,7 @@
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999">
@@ -1249,28 +1244,28 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="33">
-        <v>150</v>
-      </c>
-      <c r="D17" s="34">
+      <c r="C17" s="28">
+        <v>150</v>
+      </c>
+      <c r="D17" s="29">
         <v>7855</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.6">
       <c r="A18" s="27"/>
       <c r="B18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" s="20" customFormat="1" ht="31.2" thickBot="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A20" s="30">
@@ -1279,7 +1274,7 @@
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="41">
         <v>-2310</v>
       </c>
       <c r="D20" s="32">
@@ -1291,7 +1286,7 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4">
@@ -1299,7 +1294,7 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="20.399999999999999" customHeight="1">
@@ -1307,7 +1302,7 @@
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="20.399999999999999">
@@ -1317,10 +1312,10 @@
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="33">
-        <v>150</v>
-      </c>
-      <c r="D24" s="34">
+      <c r="C24" s="28">
+        <v>150</v>
+      </c>
+      <c r="D24" s="29">
         <v>10015</v>
       </c>
     </row>
@@ -1329,16 +1324,16 @@
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" ht="20.399999999999999">
       <c r="A26" s="27"/>
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="20.399999999999999">
       <c r="A27" s="30">
@@ -1347,7 +1342,7 @@
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="31">
         <v>300</v>
       </c>
       <c r="D27" s="32">
@@ -1359,7 +1354,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="30.6">
@@ -1367,7 +1362,7 @@
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="20.399999999999999">
@@ -1377,10 +1372,10 @@
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="33">
-        <v>150</v>
-      </c>
-      <c r="D30" s="34">
+      <c r="C30" s="28">
+        <v>150</v>
+      </c>
+      <c r="D30" s="29">
         <v>9565</v>
       </c>
     </row>
@@ -1389,16 +1384,16 @@
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="30.6">
       <c r="A32" s="27"/>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="20.399999999999999">
       <c r="A33" s="30">
@@ -1407,7 +1402,7 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="31">
         <v>150</v>
       </c>
       <c r="D33" s="32">
@@ -1419,7 +1414,7 @@
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="30.6">
@@ -1427,7 +1422,7 @@
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="20.399999999999999">
@@ -1437,10 +1432,10 @@
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="33">
-        <v>150</v>
-      </c>
-      <c r="D36" s="34">
+      <c r="C36" s="28">
+        <v>150</v>
+      </c>
+      <c r="D36" s="29">
         <v>9265</v>
       </c>
     </row>
@@ -1449,16 +1444,16 @@
       <c r="B37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="20.399999999999999">
       <c r="A38" s="27"/>
       <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" ht="20.399999999999999">
       <c r="A39" s="30">
@@ -1467,7 +1462,7 @@
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="31">
         <v>150</v>
       </c>
       <c r="D39" s="32">
@@ -1479,7 +1474,7 @@
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="30.6">
@@ -1487,7 +1482,7 @@
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="20.399999999999999">
@@ -1497,10 +1492,10 @@
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="28">
         <v>300</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="29">
         <v>8965</v>
       </c>
     </row>
@@ -1509,16 +1504,16 @@
       <c r="B43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" ht="30.6">
       <c r="A44" s="27"/>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="34"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" ht="20.399999999999999">
       <c r="A45" s="30">
@@ -1527,7 +1522,7 @@
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="31">
         <v>150</v>
       </c>
       <c r="D45" s="32">
@@ -1539,7 +1534,7 @@
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="36"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="20.399999999999999">
@@ -1547,7 +1542,7 @@
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="20.399999999999999">
@@ -1557,10 +1552,10 @@
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="33">
-        <v>150</v>
-      </c>
-      <c r="D48" s="34">
+      <c r="C48" s="28">
+        <v>150</v>
+      </c>
+      <c r="D48" s="29">
         <v>8515</v>
       </c>
     </row>
@@ -1569,16 +1564,16 @@
       <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="30.6">
       <c r="A50" s="27"/>
       <c r="B50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="20.399999999999999">
       <c r="A51" s="30">
@@ -1587,7 +1582,7 @@
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="31">
         <v>150</v>
       </c>
       <c r="D51" s="32">
@@ -1599,7 +1594,7 @@
       <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4" ht="30.6">
@@ -1607,7 +1602,7 @@
       <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="20.399999999999999">
@@ -1617,10 +1612,10 @@
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="33">
-        <v>150</v>
-      </c>
-      <c r="D54" s="34">
+      <c r="C54" s="28">
+        <v>150</v>
+      </c>
+      <c r="D54" s="29">
         <v>8215</v>
       </c>
     </row>
@@ -1629,16 +1624,16 @@
       <c r="B55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" ht="30.6">
       <c r="A56" s="27"/>
       <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" ht="20.399999999999999">
       <c r="A57" s="30">
@@ -1647,7 +1642,7 @@
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="31">
         <v>150</v>
       </c>
       <c r="D57" s="32">
@@ -1659,7 +1654,7 @@
       <c r="B58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="30.6">
@@ -1667,7 +1662,7 @@
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" ht="20.399999999999999">
@@ -1677,10 +1672,10 @@
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="33">
-        <v>150</v>
-      </c>
-      <c r="D60" s="34">
+      <c r="C60" s="28">
+        <v>150</v>
+      </c>
+      <c r="D60" s="29">
         <v>7915</v>
       </c>
     </row>
@@ -1689,16 +1684,16 @@
       <c r="B61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" ht="30.6">
       <c r="A62" s="27"/>
       <c r="B62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4" ht="20.399999999999999">
       <c r="A63" s="30">
@@ -1707,7 +1702,7 @@
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="31">
         <v>150</v>
       </c>
       <c r="D63" s="32">
@@ -1719,7 +1714,7 @@
       <c r="B64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="36"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4" ht="30.6">
@@ -1727,7 +1722,7 @@
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="36"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4" ht="20.399999999999999">
@@ -1737,10 +1732,10 @@
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="33">
-        <v>150</v>
-      </c>
-      <c r="D66" s="34">
+      <c r="C66" s="28">
+        <v>150</v>
+      </c>
+      <c r="D66" s="29">
         <v>7615</v>
       </c>
     </row>
@@ -1749,16 +1744,16 @@
       <c r="B67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" ht="30.6">
       <c r="A68" s="27"/>
       <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4" ht="20.399999999999999">
       <c r="A69" s="30">
@@ -1767,7 +1762,7 @@
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="31">
         <v>300</v>
       </c>
       <c r="D69" s="32">
@@ -1779,7 +1774,7 @@
       <c r="B70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="36"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4" ht="30.6">
@@ -1787,7 +1782,7 @@
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="36"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="20.399999999999999">
@@ -1797,10 +1792,10 @@
       <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="33">
-        <v>150</v>
-      </c>
-      <c r="D72" s="34">
+      <c r="C72" s="28">
+        <v>150</v>
+      </c>
+      <c r="D72" s="29">
         <v>7165</v>
       </c>
     </row>
@@ -1809,16 +1804,16 @@
       <c r="B73" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="34"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4" ht="20.399999999999999">
       <c r="A74" s="27"/>
       <c r="B74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
     </row>
     <row r="75" spans="1:4" ht="20.399999999999999">
       <c r="A75" s="30">
@@ -1827,7 +1822,7 @@
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="31">
         <v>150</v>
       </c>
       <c r="D75" s="32">
@@ -1839,7 +1834,7 @@
       <c r="B76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4" ht="20.399999999999999">
@@ -1847,7 +1842,7 @@
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="32"/>
     </row>
     <row r="78" spans="1:4" ht="20.399999999999999">
@@ -1857,10 +1852,10 @@
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="33">
-        <v>150</v>
-      </c>
-      <c r="D78" s="34">
+      <c r="C78" s="28">
+        <v>150</v>
+      </c>
+      <c r="D78" s="29">
         <v>6865</v>
       </c>
     </row>
@@ -1869,16 +1864,16 @@
       <c r="B79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
     </row>
     <row r="80" spans="1:4" ht="30.6">
       <c r="A80" s="27"/>
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
     </row>
     <row r="81" spans="1:4" ht="20.399999999999999">
       <c r="A81" s="30">
@@ -1887,7 +1882,7 @@
       <c r="B81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="36">
+      <c r="C81" s="31">
         <v>150</v>
       </c>
       <c r="D81" s="32">
@@ -1899,7 +1894,7 @@
       <c r="B82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="36"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="32"/>
     </row>
     <row r="83" spans="1:4" ht="30.6">
@@ -1907,7 +1902,7 @@
       <c r="B83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="32"/>
     </row>
     <row r="84" spans="1:4" ht="20.399999999999999">
@@ -1917,10 +1912,10 @@
       <c r="B84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="33">
-        <v>150</v>
-      </c>
-      <c r="D84" s="34">
+      <c r="C84" s="28">
+        <v>150</v>
+      </c>
+      <c r="D84" s="29">
         <v>6565</v>
       </c>
     </row>
@@ -1929,16 +1924,16 @@
       <c r="B85" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="29"/>
     </row>
     <row r="86" spans="1:4" ht="30.6">
       <c r="A86" s="27"/>
       <c r="B86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="34"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
     </row>
     <row r="87" spans="1:4" ht="20.399999999999999">
       <c r="A87" s="30">
@@ -1947,7 +1942,7 @@
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="36">
+      <c r="C87" s="31">
         <v>150</v>
       </c>
       <c r="D87" s="32">
@@ -1959,7 +1954,7 @@
       <c r="B88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4" ht="30.6">
@@ -1967,7 +1962,7 @@
       <c r="B89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="36"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" ht="20.399999999999999">
@@ -1977,10 +1972,10 @@
       <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="33">
-        <v>150</v>
-      </c>
-      <c r="D90" s="34">
+      <c r="C90" s="28">
+        <v>150</v>
+      </c>
+      <c r="D90" s="29">
         <v>6265</v>
       </c>
     </row>
@@ -1989,16 +1984,16 @@
       <c r="B91" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="34"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:4" ht="30.6">
       <c r="A92" s="27"/>
       <c r="B92" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="34"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="29"/>
     </row>
     <row r="93" spans="1:4" ht="20.399999999999999">
       <c r="A93" s="30">
@@ -2007,7 +2002,7 @@
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="36">
+      <c r="C93" s="31">
         <v>150</v>
       </c>
       <c r="D93" s="32">
@@ -2019,7 +2014,7 @@
       <c r="B94" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="36"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="32"/>
     </row>
     <row r="95" spans="1:4" ht="30.6">
@@ -2027,7 +2022,7 @@
       <c r="B95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="36"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="32"/>
     </row>
     <row r="96" spans="1:4" ht="20.399999999999999">
@@ -2037,10 +2032,10 @@
       <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="33">
+      <c r="C96" s="28">
         <v>300</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="29">
         <v>5965</v>
       </c>
     </row>
@@ -2049,16 +2044,16 @@
       <c r="B97" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="34"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
     </row>
     <row r="98" spans="1:4" ht="30.6">
       <c r="A98" s="27"/>
       <c r="B98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="34"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="1:4" ht="20.399999999999999">
       <c r="A99" s="30">
@@ -2067,7 +2062,7 @@
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="36">
+      <c r="C99" s="31">
         <v>150</v>
       </c>
       <c r="D99" s="32">
@@ -2079,7 +2074,7 @@
       <c r="B100" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="36"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4" ht="20.399999999999999">
@@ -2087,7 +2082,7 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="36"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="32"/>
     </row>
     <row r="102" spans="1:4" ht="20.399999999999999">
@@ -2097,10 +2092,10 @@
       <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="33">
-        <v>150</v>
-      </c>
-      <c r="D102" s="34">
+      <c r="C102" s="28">
+        <v>150</v>
+      </c>
+      <c r="D102" s="29">
         <v>5515</v>
       </c>
     </row>
@@ -2109,16 +2104,16 @@
       <c r="B103" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="34"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="29"/>
     </row>
     <row r="104" spans="1:4" ht="30.6">
       <c r="A104" s="27"/>
       <c r="B104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="34"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
     </row>
     <row r="105" spans="1:4" ht="20.399999999999999">
       <c r="A105" s="30">
@@ -2127,7 +2122,7 @@
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="36">
+      <c r="C105" s="31">
         <v>150</v>
       </c>
       <c r="D105" s="32">
@@ -2139,7 +2134,7 @@
       <c r="B106" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="36"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="32"/>
     </row>
     <row r="107" spans="1:4" ht="30.6">
@@ -2147,7 +2142,7 @@
       <c r="B107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="36"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="32"/>
     </row>
     <row r="108" spans="1:4" ht="20.399999999999999">
@@ -2157,10 +2152,10 @@
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="33">
-        <v>150</v>
-      </c>
-      <c r="D108" s="34">
+      <c r="C108" s="28">
+        <v>150</v>
+      </c>
+      <c r="D108" s="29">
         <v>5215</v>
       </c>
     </row>
@@ -2169,16 +2164,16 @@
       <c r="B109" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="34"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4" ht="20.399999999999999">
       <c r="A110" s="27"/>
       <c r="B110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="29"/>
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999">
       <c r="A111" s="30">
@@ -2187,7 +2182,7 @@
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="36">
+      <c r="C111" s="31">
         <v>150</v>
       </c>
       <c r="D111" s="32">
@@ -2199,7 +2194,7 @@
       <c r="B112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="36"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="32"/>
     </row>
     <row r="113" spans="1:4" ht="30.6">
@@ -2207,7 +2202,7 @@
       <c r="B113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="36"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="32"/>
     </row>
     <row r="114" spans="1:4" ht="20.399999999999999">
@@ -2217,10 +2212,10 @@
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="33">
-        <v>150</v>
-      </c>
-      <c r="D114" s="34">
+      <c r="C114" s="28">
+        <v>150</v>
+      </c>
+      <c r="D114" s="29">
         <v>4915</v>
       </c>
     </row>
@@ -2229,16 +2224,16 @@
       <c r="B115" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="33"/>
-      <c r="D115" s="34"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
     </row>
     <row r="116" spans="1:4" ht="30.6">
       <c r="A116" s="27"/>
       <c r="B116" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="33"/>
-      <c r="D116" s="34"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
     </row>
     <row r="117" spans="1:4" ht="20.399999999999999">
       <c r="A117" s="30">
@@ -2247,7 +2242,7 @@
       <c r="B117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="36">
+      <c r="C117" s="31">
         <v>150</v>
       </c>
       <c r="D117" s="32">
@@ -2259,7 +2254,7 @@
       <c r="B118" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C118" s="36"/>
+      <c r="C118" s="31"/>
       <c r="D118" s="32"/>
     </row>
     <row r="119" spans="1:4" ht="30.6">
@@ -2267,7 +2262,7 @@
       <c r="B119" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="36"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="32"/>
     </row>
     <row r="120" spans="1:4" ht="20.399999999999999">
@@ -2277,10 +2272,10 @@
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="33">
-        <v>150</v>
-      </c>
-      <c r="D120" s="34">
+      <c r="C120" s="28">
+        <v>150</v>
+      </c>
+      <c r="D120" s="29">
         <v>4615</v>
       </c>
     </row>
@@ -2289,16 +2284,16 @@
       <c r="B121" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="34"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
     </row>
     <row r="122" spans="1:4" ht="20.399999999999999">
       <c r="A122" s="27"/>
       <c r="B122" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="34"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="29"/>
     </row>
     <row r="123" spans="1:4" ht="20.399999999999999">
       <c r="A123" s="30">
@@ -2307,7 +2302,7 @@
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="36">
+      <c r="C123" s="31">
         <v>300</v>
       </c>
       <c r="D123" s="32">
@@ -2319,7 +2314,7 @@
       <c r="B124" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C124" s="36"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="32"/>
     </row>
     <row r="125" spans="1:4" ht="30.6">
@@ -2327,7 +2322,7 @@
       <c r="B125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="36"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="32"/>
     </row>
     <row r="126" spans="1:4" ht="20.399999999999999">
@@ -2337,10 +2332,10 @@
       <c r="B126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="33">
-        <v>150</v>
-      </c>
-      <c r="D126" s="34">
+      <c r="C126" s="28">
+        <v>150</v>
+      </c>
+      <c r="D126" s="29">
         <v>4165</v>
       </c>
     </row>
@@ -2349,16 +2344,16 @@
       <c r="B127" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C127" s="33"/>
-      <c r="D127" s="34"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="29"/>
     </row>
     <row r="128" spans="1:4" ht="30.6">
       <c r="A128" s="27"/>
       <c r="B128" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="33"/>
-      <c r="D128" s="34"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="29"/>
     </row>
     <row r="129" spans="1:4" ht="20.399999999999999">
       <c r="A129" s="30">
@@ -2367,7 +2362,7 @@
       <c r="B129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="36">
+      <c r="C129" s="31">
         <v>150</v>
       </c>
       <c r="D129" s="32">
@@ -2379,7 +2374,7 @@
       <c r="B130" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="31"/>
       <c r="D130" s="32"/>
     </row>
     <row r="131" spans="1:4" ht="30.6">
@@ -2387,7 +2382,7 @@
       <c r="B131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="32"/>
     </row>
     <row r="132" spans="1:4" ht="20.399999999999999">
@@ -2397,10 +2392,10 @@
       <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="33">
-        <v>150</v>
-      </c>
-      <c r="D132" s="34">
+      <c r="C132" s="28">
+        <v>150</v>
+      </c>
+      <c r="D132" s="29">
         <v>3865</v>
       </c>
     </row>
@@ -2409,16 +2404,16 @@
       <c r="B133" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="34"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="29"/>
     </row>
     <row r="134" spans="1:4" ht="30.6">
       <c r="A134" s="27"/>
       <c r="B134" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C134" s="33"/>
-      <c r="D134" s="34"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="29"/>
     </row>
     <row r="135" spans="1:4" ht="20.399999999999999">
       <c r="A135" s="30">
@@ -2427,7 +2422,7 @@
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="36">
+      <c r="C135" s="31">
         <v>150</v>
       </c>
       <c r="D135" s="32">
@@ -2439,7 +2434,7 @@
       <c r="B136" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C136" s="36"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="32"/>
     </row>
     <row r="137" spans="1:4" ht="30.6">
@@ -2447,7 +2442,7 @@
       <c r="B137" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="36"/>
+      <c r="C137" s="31"/>
       <c r="D137" s="32"/>
     </row>
     <row r="138" spans="1:4" ht="20.399999999999999">
@@ -2457,10 +2452,10 @@
       <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="33">
+      <c r="C138" s="28">
         <v>300</v>
       </c>
-      <c r="D138" s="34">
+      <c r="D138" s="29">
         <v>3565</v>
       </c>
     </row>
@@ -2469,16 +2464,16 @@
       <c r="B139" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C139" s="33"/>
-      <c r="D139" s="34"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="29"/>
     </row>
     <row r="140" spans="1:4" ht="30.6">
       <c r="A140" s="27"/>
       <c r="B140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="33"/>
-      <c r="D140" s="34"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="29"/>
     </row>
     <row r="141" spans="1:4" ht="20.399999999999999">
       <c r="A141" s="30">
@@ -2487,7 +2482,7 @@
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="36">
+      <c r="C141" s="31">
         <v>150</v>
       </c>
       <c r="D141" s="32">
@@ -2499,7 +2494,7 @@
       <c r="B142" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="36"/>
+      <c r="C142" s="31"/>
       <c r="D142" s="32"/>
     </row>
     <row r="143" spans="1:4" ht="20.399999999999999">
@@ -2507,7 +2502,7 @@
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C143" s="36"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="32"/>
     </row>
     <row r="144" spans="1:4" ht="20.399999999999999">
@@ -2517,10 +2512,10 @@
       <c r="B144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="33">
-        <v>150</v>
-      </c>
-      <c r="D144" s="34">
+      <c r="C144" s="28">
+        <v>150</v>
+      </c>
+      <c r="D144" s="29">
         <v>3115</v>
       </c>
     </row>
@@ -2529,16 +2524,16 @@
       <c r="B145" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="33"/>
-      <c r="D145" s="34"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="29"/>
     </row>
     <row r="146" spans="1:4" ht="30.6">
       <c r="A146" s="27"/>
       <c r="B146" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="34"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="29"/>
     </row>
     <row r="147" spans="1:4" ht="20.399999999999999">
       <c r="A147" s="30">
@@ -2547,7 +2542,7 @@
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="36">
+      <c r="C147" s="31">
         <v>150</v>
       </c>
       <c r="D147" s="32">
@@ -2559,7 +2554,7 @@
       <c r="B148" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C148" s="36"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="32"/>
     </row>
     <row r="149" spans="1:4" ht="30.6">
@@ -2567,7 +2562,7 @@
       <c r="B149" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C149" s="36"/>
+      <c r="C149" s="31"/>
       <c r="D149" s="32"/>
     </row>
     <row r="150" spans="1:4" ht="20.399999999999999">
@@ -2577,10 +2572,10 @@
       <c r="B150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="33">
-        <v>150</v>
-      </c>
-      <c r="D150" s="34">
+      <c r="C150" s="28">
+        <v>150</v>
+      </c>
+      <c r="D150" s="29">
         <v>2815</v>
       </c>
     </row>
@@ -2589,16 +2584,16 @@
       <c r="B151" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C151" s="33"/>
-      <c r="D151" s="34"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="29"/>
     </row>
     <row r="152" spans="1:4" ht="30.6">
       <c r="A152" s="27"/>
       <c r="B152" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C152" s="33"/>
-      <c r="D152" s="34"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="29"/>
     </row>
     <row r="153" spans="1:4" ht="20.399999999999999">
       <c r="A153" s="30">
@@ -2607,7 +2602,7 @@
       <c r="B153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="36">
+      <c r="C153" s="31">
         <v>150</v>
       </c>
       <c r="D153" s="32">
@@ -2619,7 +2614,7 @@
       <c r="B154" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C154" s="36"/>
+      <c r="C154" s="31"/>
       <c r="D154" s="32"/>
     </row>
     <row r="155" spans="1:4" ht="20.399999999999999">
@@ -2627,7 +2622,7 @@
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="36"/>
+      <c r="C155" s="31"/>
       <c r="D155" s="32"/>
     </row>
     <row r="156" spans="1:4" ht="20.399999999999999">
@@ -2637,10 +2632,10 @@
       <c r="B156" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="33">
-        <v>150</v>
-      </c>
-      <c r="D156" s="34">
+      <c r="C156" s="28">
+        <v>150</v>
+      </c>
+      <c r="D156" s="29">
         <v>2515</v>
       </c>
     </row>
@@ -2649,16 +2644,16 @@
       <c r="B157" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C157" s="33"/>
-      <c r="D157" s="34"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="29"/>
     </row>
     <row r="158" spans="1:4" ht="30.6">
       <c r="A158" s="27"/>
       <c r="B158" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="33"/>
-      <c r="D158" s="34"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="29"/>
     </row>
     <row r="159" spans="1:4" ht="20.399999999999999">
       <c r="A159" s="30">
@@ -2667,7 +2662,7 @@
       <c r="B159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="36">
+      <c r="C159" s="31">
         <v>600</v>
       </c>
       <c r="D159" s="32">
@@ -2679,7 +2674,7 @@
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="36"/>
+      <c r="C160" s="31"/>
       <c r="D160" s="32"/>
     </row>
     <row r="161" spans="1:4" ht="30.6">
@@ -2687,7 +2682,7 @@
       <c r="B161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="36"/>
+      <c r="C161" s="31"/>
       <c r="D161" s="32"/>
     </row>
     <row r="162" spans="1:4" ht="20.399999999999999">
@@ -2697,10 +2692,10 @@
       <c r="B162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="33">
-        <v>150</v>
-      </c>
-      <c r="D162" s="34">
+      <c r="C162" s="28">
+        <v>150</v>
+      </c>
+      <c r="D162" s="29">
         <v>1765</v>
       </c>
     </row>
@@ -2709,16 +2704,16 @@
       <c r="B163" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C163" s="33"/>
-      <c r="D163" s="34"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="29"/>
     </row>
     <row r="164" spans="1:4" ht="30.6">
       <c r="A164" s="27"/>
       <c r="B164" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C164" s="33"/>
-      <c r="D164" s="34"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="29"/>
     </row>
     <row r="165" spans="1:4" ht="20.399999999999999">
       <c r="A165" s="30">
@@ -2727,7 +2722,7 @@
       <c r="B165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C165" s="36">
+      <c r="C165" s="31">
         <v>150</v>
       </c>
       <c r="D165" s="32">
@@ -2739,7 +2734,7 @@
       <c r="B166" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C166" s="36"/>
+      <c r="C166" s="31"/>
       <c r="D166" s="32"/>
     </row>
     <row r="167" spans="1:4" ht="30.6">
@@ -2747,7 +2742,7 @@
       <c r="B167" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C167" s="36"/>
+      <c r="C167" s="31"/>
       <c r="D167" s="32"/>
     </row>
     <row r="168" spans="1:4" ht="20.399999999999999">
@@ -2757,10 +2752,10 @@
       <c r="B168" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="33">
-        <v>150</v>
-      </c>
-      <c r="D168" s="34">
+      <c r="C168" s="28">
+        <v>150</v>
+      </c>
+      <c r="D168" s="29">
         <v>1465</v>
       </c>
     </row>
@@ -2769,16 +2764,16 @@
       <c r="B169" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="29"/>
     </row>
     <row r="170" spans="1:4" ht="30.6">
       <c r="A170" s="27"/>
       <c r="B170" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="33"/>
-      <c r="D170" s="34"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="29"/>
     </row>
     <row r="171" spans="1:4" ht="30.6">
       <c r="A171" s="30">
@@ -2787,7 +2782,7 @@
       <c r="B171" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C171" s="31">
+      <c r="C171" s="41">
         <v>-6.5</v>
       </c>
       <c r="D171" s="32">
@@ -2799,7 +2794,7 @@
       <c r="B172" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C172" s="31"/>
+      <c r="C172" s="41"/>
       <c r="D172" s="32"/>
     </row>
     <row r="173" spans="1:4" ht="20.399999999999999">
@@ -2809,10 +2804,10 @@
       <c r="B173" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C173" s="33">
-        <v>150</v>
-      </c>
-      <c r="D173" s="34">
+      <c r="C173" s="28">
+        <v>150</v>
+      </c>
+      <c r="D173" s="29">
         <v>1321.5</v>
       </c>
     </row>
@@ -2821,16 +2816,16 @@
       <c r="B174" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C174" s="33"/>
-      <c r="D174" s="34"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="29"/>
     </row>
     <row r="175" spans="1:4" ht="20.399999999999999">
       <c r="A175" s="27"/>
       <c r="B175" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="29"/>
     </row>
     <row r="176" spans="1:4" ht="20.399999999999999">
       <c r="A176" s="30">
@@ -2839,7 +2834,7 @@
       <c r="B176" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C176" s="36">
+      <c r="C176" s="31">
         <v>150</v>
       </c>
       <c r="D176" s="32">
@@ -2851,7 +2846,7 @@
       <c r="B177" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C177" s="36"/>
+      <c r="C177" s="31"/>
       <c r="D177" s="32"/>
     </row>
     <row r="178" spans="1:4" ht="30.6">
@@ -2859,7 +2854,7 @@
       <c r="B178" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C178" s="36"/>
+      <c r="C178" s="31"/>
       <c r="D178" s="32"/>
     </row>
     <row r="179" spans="1:4" ht="20.399999999999999">
@@ -2869,10 +2864,10 @@
       <c r="B179" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C179" s="33">
-        <v>150</v>
-      </c>
-      <c r="D179" s="34">
+      <c r="C179" s="28">
+        <v>150</v>
+      </c>
+      <c r="D179" s="29">
         <v>1021.5</v>
       </c>
     </row>
@@ -2881,16 +2876,16 @@
       <c r="B180" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C180" s="33"/>
-      <c r="D180" s="34"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="29"/>
     </row>
     <row r="181" spans="1:4" ht="30.6">
       <c r="A181" s="27"/>
       <c r="B181" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C181" s="33"/>
-      <c r="D181" s="34"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="29"/>
     </row>
     <row r="182" spans="1:4" ht="30.6">
       <c r="A182" s="30">
@@ -2899,7 +2894,7 @@
       <c r="B182" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C182" s="31">
+      <c r="C182" s="41">
         <v>-6.5</v>
       </c>
       <c r="D182" s="32">
@@ -2911,7 +2906,7 @@
       <c r="B183" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C183" s="31"/>
+      <c r="C183" s="41"/>
       <c r="D183" s="32"/>
     </row>
     <row r="184" spans="1:4" ht="30.6">
@@ -2921,10 +2916,10 @@
       <c r="B184" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C184" s="28">
+      <c r="C184" s="39">
         <v>-0.6</v>
       </c>
-      <c r="D184" s="34">
+      <c r="D184" s="29">
         <v>878</v>
       </c>
     </row>
@@ -2933,8 +2928,8 @@
       <c r="B185" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="28"/>
-      <c r="D185" s="34"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="29"/>
     </row>
     <row r="186" spans="1:4" ht="20.399999999999999">
       <c r="A186" s="30">
@@ -2943,7 +2938,7 @@
       <c r="B186" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C186" s="36">
+      <c r="C186" s="31">
         <v>300</v>
       </c>
       <c r="D186" s="32">
@@ -2955,7 +2950,7 @@
       <c r="B187" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C187" s="36"/>
+      <c r="C187" s="31"/>
       <c r="D187" s="32"/>
     </row>
     <row r="188" spans="1:4" ht="40.799999999999997">
@@ -2963,7 +2958,7 @@
       <c r="B188" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C188" s="36"/>
+      <c r="C188" s="31"/>
       <c r="D188" s="32"/>
     </row>
     <row r="189" spans="1:4" ht="20.399999999999999">
@@ -2973,10 +2968,10 @@
       <c r="B189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C189" s="33">
-        <v>150</v>
-      </c>
-      <c r="D189" s="34">
+      <c r="C189" s="28">
+        <v>150</v>
+      </c>
+      <c r="D189" s="29">
         <v>578.6</v>
       </c>
     </row>
@@ -2985,16 +2980,16 @@
       <c r="B190" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C190" s="33"/>
-      <c r="D190" s="34"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="29"/>
     </row>
     <row r="191" spans="1:4" ht="30.6">
       <c r="A191" s="27"/>
       <c r="B191" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C191" s="33"/>
-      <c r="D191" s="34"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="29"/>
     </row>
     <row r="192" spans="1:4" ht="20.399999999999999">
       <c r="A192" s="30">
@@ -3003,7 +2998,7 @@
       <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="31">
+      <c r="C192" s="41">
         <v>-2050</v>
       </c>
       <c r="D192" s="32">
@@ -3015,7 +3010,7 @@
       <c r="B193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="31"/>
+      <c r="C193" s="41"/>
       <c r="D193" s="32"/>
     </row>
     <row r="194" spans="1:4">
@@ -3023,7 +3018,7 @@
       <c r="B194" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="31"/>
+      <c r="C194" s="41"/>
       <c r="D194" s="32"/>
     </row>
     <row r="195" spans="1:4" ht="20.399999999999999">
@@ -3031,7 +3026,7 @@
       <c r="B195" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C195" s="31"/>
+      <c r="C195" s="41"/>
       <c r="D195" s="32"/>
     </row>
     <row r="196" spans="1:4" ht="20.399999999999999">
@@ -3041,10 +3036,10 @@
       <c r="B196" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C196" s="33">
-        <v>150</v>
-      </c>
-      <c r="D196" s="34">
+      <c r="C196" s="28">
+        <v>150</v>
+      </c>
+      <c r="D196" s="29">
         <v>2478.6</v>
       </c>
     </row>
@@ -3053,16 +3048,16 @@
       <c r="B197" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C197" s="33"/>
-      <c r="D197" s="34"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="29"/>
     </row>
     <row r="198" spans="1:4" ht="20.399999999999999">
       <c r="A198" s="27"/>
       <c r="B198" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="29"/>
     </row>
     <row r="199" spans="1:4" ht="20.399999999999999">
       <c r="A199" s="30">
@@ -3071,7 +3066,7 @@
       <c r="B199" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C199" s="36">
+      <c r="C199" s="31">
         <v>150</v>
       </c>
       <c r="D199" s="32">
@@ -3083,7 +3078,7 @@
       <c r="B200" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C200" s="36"/>
+      <c r="C200" s="31"/>
       <c r="D200" s="32"/>
     </row>
     <row r="201" spans="1:4" ht="30.6">
@@ -3091,7 +3086,7 @@
       <c r="B201" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C201" s="36"/>
+      <c r="C201" s="31"/>
       <c r="D201" s="32"/>
     </row>
     <row r="202" spans="1:4" ht="20.399999999999999">
@@ -3101,10 +3096,10 @@
       <c r="B202" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C202" s="33">
-        <v>150</v>
-      </c>
-      <c r="D202" s="34">
+      <c r="C202" s="28">
+        <v>150</v>
+      </c>
+      <c r="D202" s="29">
         <v>2178.6</v>
       </c>
     </row>
@@ -3113,16 +3108,16 @@
       <c r="B203" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C203" s="33"/>
-      <c r="D203" s="34"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="29"/>
     </row>
     <row r="204" spans="1:4" ht="30.6">
       <c r="A204" s="27"/>
       <c r="B204" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="33"/>
-      <c r="D204" s="34"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="29"/>
     </row>
     <row r="205" spans="1:4" ht="30.6">
       <c r="A205" s="30">
@@ -3131,7 +3126,7 @@
       <c r="B205" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C205" s="31">
+      <c r="C205" s="41">
         <v>-6.5</v>
       </c>
       <c r="D205" s="32">
@@ -3143,7 +3138,7 @@
       <c r="B206" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C206" s="31"/>
+      <c r="C206" s="41"/>
       <c r="D206" s="32"/>
     </row>
     <row r="207" spans="1:4" ht="20.399999999999999">
@@ -3153,10 +3148,10 @@
       <c r="B207" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C207" s="33">
-        <v>150</v>
-      </c>
-      <c r="D207" s="34">
+      <c r="C207" s="28">
+        <v>150</v>
+      </c>
+      <c r="D207" s="29">
         <v>2035.1</v>
       </c>
     </row>
@@ -3165,16 +3160,16 @@
       <c r="B208" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C208" s="33"/>
-      <c r="D208" s="34"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="29"/>
     </row>
     <row r="209" spans="1:4" ht="30.6">
       <c r="A209" s="27"/>
       <c r="B209" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C209" s="33"/>
-      <c r="D209" s="34"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="29"/>
     </row>
     <row r="210" spans="1:4" ht="20.399999999999999">
       <c r="A210" s="30">
@@ -3183,7 +3178,7 @@
       <c r="B210" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="36">
+      <c r="C210" s="31">
         <v>300</v>
       </c>
       <c r="D210" s="32">
@@ -3195,7 +3190,7 @@
       <c r="B211" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C211" s="36"/>
+      <c r="C211" s="31"/>
       <c r="D211" s="32"/>
     </row>
     <row r="212" spans="1:4" ht="30.6">
@@ -3203,7 +3198,7 @@
       <c r="B212" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C212" s="36"/>
+      <c r="C212" s="31"/>
       <c r="D212" s="32"/>
     </row>
     <row r="213" spans="1:4" ht="20.399999999999999">
@@ -3213,10 +3208,10 @@
       <c r="B213" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C213" s="33">
-        <v>150</v>
-      </c>
-      <c r="D213" s="34">
+      <c r="C213" s="28">
+        <v>150</v>
+      </c>
+      <c r="D213" s="29">
         <v>1585.1</v>
       </c>
     </row>
@@ -3225,16 +3220,16 @@
       <c r="B214" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C214" s="33"/>
-      <c r="D214" s="34"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="29"/>
     </row>
     <row r="215" spans="1:4" ht="20.399999999999999">
       <c r="A215" s="27"/>
       <c r="B215" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C215" s="33"/>
-      <c r="D215" s="34"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="29"/>
     </row>
     <row r="216" spans="1:4" ht="20.399999999999999">
       <c r="A216" s="30">
@@ -3243,7 +3238,7 @@
       <c r="B216" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C216" s="36">
+      <c r="C216" s="31">
         <v>150</v>
       </c>
       <c r="D216" s="32">
@@ -3255,7 +3250,7 @@
       <c r="B217" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C217" s="36"/>
+      <c r="C217" s="31"/>
       <c r="D217" s="32"/>
     </row>
     <row r="218" spans="1:4" ht="30.6">
@@ -3263,7 +3258,7 @@
       <c r="B218" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C218" s="36"/>
+      <c r="C218" s="31"/>
       <c r="D218" s="32"/>
     </row>
     <row r="219" spans="1:4" ht="20.399999999999999">
@@ -3273,10 +3268,10 @@
       <c r="B219" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C219" s="33">
+      <c r="C219" s="28">
         <v>300</v>
       </c>
-      <c r="D219" s="34">
+      <c r="D219" s="29">
         <v>1285.0999999999999</v>
       </c>
     </row>
@@ -3285,16 +3280,16 @@
       <c r="B220" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C220" s="33"/>
-      <c r="D220" s="34"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="29"/>
     </row>
     <row r="221" spans="1:4" ht="40.799999999999997">
       <c r="A221" s="27"/>
       <c r="B221" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C221" s="33"/>
-      <c r="D221" s="34"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="29"/>
     </row>
     <row r="222" spans="1:4" ht="20.399999999999999">
       <c r="A222" s="30">
@@ -3303,7 +3298,7 @@
       <c r="B222" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C222" s="36">
+      <c r="C222" s="31">
         <v>150</v>
       </c>
       <c r="D222" s="32">
@@ -3315,7 +3310,7 @@
       <c r="B223" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C223" s="36"/>
+      <c r="C223" s="31"/>
       <c r="D223" s="32"/>
     </row>
     <row r="224" spans="1:4" ht="30.6">
@@ -3323,7 +3318,7 @@
       <c r="B224" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C224" s="36"/>
+      <c r="C224" s="31"/>
       <c r="D224" s="32"/>
     </row>
     <row r="225" spans="1:4" ht="30.6">
@@ -3333,10 +3328,10 @@
       <c r="B225" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C225" s="28">
+      <c r="C225" s="39">
         <v>-6.5</v>
       </c>
-      <c r="D225" s="34">
+      <c r="D225" s="29">
         <v>835.1</v>
       </c>
     </row>
@@ -3345,8 +3340,8 @@
       <c r="B226" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C226" s="28"/>
-      <c r="D226" s="34"/>
+      <c r="C226" s="39"/>
+      <c r="D226" s="29"/>
     </row>
     <row r="227" spans="1:4" ht="30.6">
       <c r="A227" s="30">
@@ -3355,7 +3350,7 @@
       <c r="B227" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C227" s="31">
+      <c r="C227" s="41">
         <v>-2.1</v>
       </c>
       <c r="D227" s="32">
@@ -3367,7 +3362,7 @@
       <c r="B228" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C228" s="31"/>
+      <c r="C228" s="41"/>
       <c r="D228" s="32"/>
     </row>
     <row r="229" spans="1:4" ht="20.399999999999999">
@@ -3377,10 +3372,10 @@
       <c r="B229" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C229" s="33">
-        <v>150</v>
-      </c>
-      <c r="D229" s="34">
+      <c r="C229" s="28">
+        <v>150</v>
+      </c>
+      <c r="D229" s="29">
         <v>843.7</v>
       </c>
     </row>
@@ -3389,16 +3384,16 @@
       <c r="B230" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C230" s="33"/>
-      <c r="D230" s="34"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="29"/>
     </row>
     <row r="231" spans="1:4" ht="30.6">
       <c r="A231" s="27"/>
       <c r="B231" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C231" s="33"/>
-      <c r="D231" s="34"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="29"/>
     </row>
     <row r="232" spans="1:4" ht="20.399999999999999">
       <c r="A232" s="30">
@@ -3407,7 +3402,7 @@
       <c r="B232" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C232" s="36">
+      <c r="C232" s="31">
         <v>150</v>
       </c>
       <c r="D232" s="32">
@@ -3419,7 +3414,7 @@
       <c r="B233" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C233" s="36"/>
+      <c r="C233" s="31"/>
       <c r="D233" s="32"/>
     </row>
     <row r="234" spans="1:4" ht="20.399999999999999">
@@ -3427,7 +3422,7 @@
       <c r="B234" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C234" s="36"/>
+      <c r="C234" s="31"/>
       <c r="D234" s="32"/>
     </row>
     <row r="235" spans="1:4" ht="30.6" customHeight="1">
@@ -3437,10 +3432,10 @@
       <c r="B235" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C235" s="28">
+      <c r="C235" s="39">
         <v>-341.67</v>
       </c>
-      <c r="D235" s="34">
+      <c r="D235" s="29">
         <v>543.70000000000005</v>
       </c>
     </row>
@@ -3449,53 +3444,53 @@
       <c r="B236" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C236" s="28"/>
-      <c r="D236" s="34"/>
+      <c r="C236" s="39"/>
+      <c r="D236" s="29"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="27"/>
       <c r="B237" s="2">
         <v>10100086160634</v>
       </c>
-      <c r="C237" s="28"/>
-      <c r="D237" s="34"/>
+      <c r="C237" s="39"/>
+      <c r="D237" s="29"/>
     </row>
     <row r="238" spans="1:4" ht="30.6" customHeight="1">
       <c r="A238" s="27"/>
       <c r="B238" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C238" s="28"/>
-      <c r="D238" s="34"/>
+      <c r="C238" s="39"/>
+      <c r="D238" s="29"/>
     </row>
     <row r="239" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A239" s="40"/>
+      <c r="A239" s="33"/>
       <c r="B239" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C239" s="41"/>
-      <c r="D239" s="42"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="1:4" ht="20.399999999999999">
-      <c r="A240" s="37">
+      <c r="A240" s="36">
         <v>44685</v>
       </c>
       <c r="B240" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C240" s="38">
-        <v>150</v>
-      </c>
-      <c r="D240" s="39">
+      <c r="C240" s="37">
+        <v>150</v>
+      </c>
+      <c r="D240" s="38">
         <v>885.37</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="30.6">
       <c r="A241" s="30"/>
       <c r="B241" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C241" s="36"/>
+        <v>101</v>
+      </c>
+      <c r="C241" s="31"/>
       <c r="D241" s="32"/>
     </row>
     <row r="242" spans="1:4" ht="30.6">
@@ -3503,7 +3498,7 @@
       <c r="B242" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C242" s="36"/>
+      <c r="C242" s="31"/>
       <c r="D242" s="32"/>
     </row>
     <row r="243" spans="1:4" ht="20.399999999999999">
@@ -3511,31 +3506,31 @@
         <v>44684</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C243" s="33">
-        <v>150</v>
-      </c>
-      <c r="D243" s="34">
+        <v>102</v>
+      </c>
+      <c r="C243" s="28">
+        <v>150</v>
+      </c>
+      <c r="D243" s="29">
         <v>735.37</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="20.399999999999999">
       <c r="A244" s="27"/>
       <c r="B244" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C244" s="33"/>
-      <c r="D244" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="C244" s="28"/>
+      <c r="D244" s="29"/>
     </row>
     <row r="245" spans="1:4" ht="20.399999999999999">
       <c r="A245" s="30">
         <v>44684</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C245" s="36">
+        <v>102</v>
+      </c>
+      <c r="C245" s="31">
         <v>150</v>
       </c>
       <c r="D245" s="32">
@@ -3545,9 +3540,9 @@
     <row r="246" spans="1:4" ht="20.399999999999999">
       <c r="A246" s="30"/>
       <c r="B246" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C246" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="C246" s="31"/>
       <c r="D246" s="32"/>
     </row>
     <row r="247" spans="1:4" ht="20.399999999999999">
@@ -3557,28 +3552,28 @@
       <c r="B247" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C247" s="33">
-        <v>150</v>
-      </c>
-      <c r="D247" s="34">
+      <c r="C247" s="28">
+        <v>150</v>
+      </c>
+      <c r="D247" s="29">
         <v>435.37</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="30.6">
       <c r="A248" s="27"/>
       <c r="B248" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C248" s="33"/>
-      <c r="D248" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="C248" s="28"/>
+      <c r="D248" s="29"/>
     </row>
     <row r="249" spans="1:4" ht="30.6">
       <c r="A249" s="27"/>
       <c r="B249" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C249" s="33"/>
-      <c r="D249" s="34"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="29"/>
     </row>
     <row r="250" spans="1:4" ht="20.399999999999999">
       <c r="A250" s="30">
@@ -3587,7 +3582,7 @@
       <c r="B250" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C250" s="36">
+      <c r="C250" s="31">
         <v>150</v>
       </c>
       <c r="D250" s="32">
@@ -3597,9 +3592,9 @@
     <row r="251" spans="1:4" ht="30.6">
       <c r="A251" s="30"/>
       <c r="B251" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C251" s="36"/>
+        <v>106</v>
+      </c>
+      <c r="C251" s="31"/>
       <c r="D251" s="32"/>
     </row>
     <row r="252" spans="1:4" ht="30.6">
@@ -3607,7 +3602,7 @@
       <c r="B252" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C252" s="36"/>
+      <c r="C252" s="31"/>
       <c r="D252" s="32"/>
     </row>
     <row r="253" spans="1:4" ht="30.6">
@@ -3617,10 +3612,10 @@
       <c r="B253" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C253" s="28">
+      <c r="C253" s="39">
         <v>-6.5</v>
       </c>
-      <c r="D253" s="34">
+      <c r="D253" s="29">
         <v>135.37</v>
       </c>
     </row>
@@ -3629,17 +3624,17 @@
       <c r="B254" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C254" s="28"/>
-      <c r="D254" s="34"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="29"/>
     </row>
     <row r="255" spans="1:4" ht="20.399999999999999">
       <c r="A255" s="30">
         <v>44681</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C255" s="31">
+        <v>107</v>
+      </c>
+      <c r="C255" s="41">
         <v>-0.13</v>
       </c>
       <c r="D255" s="32">
@@ -3649,9 +3644,9 @@
     <row r="256" spans="1:4" ht="30.6">
       <c r="A256" s="30"/>
       <c r="B256" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C256" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="C256" s="41"/>
       <c r="D256" s="32"/>
     </row>
     <row r="257" spans="1:4" ht="20.399999999999999">
@@ -3661,44 +3656,44 @@
       <c r="B257" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C257" s="33">
-        <v>150</v>
-      </c>
-      <c r="D257" s="34">
+      <c r="C257" s="28">
+        <v>150</v>
+      </c>
+      <c r="D257" s="29">
         <v>142</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="30.6">
       <c r="A258" s="27"/>
       <c r="B258" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C258" s="33"/>
-      <c r="D258" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="C258" s="28"/>
+      <c r="D258" s="29"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="27"/>
       <c r="B259" s="2">
         <v>10100068626137</v>
       </c>
-      <c r="C259" s="33"/>
-      <c r="D259" s="34"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="29"/>
     </row>
     <row r="260" spans="1:4" ht="20.399999999999999">
       <c r="A260" s="27"/>
       <c r="B260" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C260" s="33"/>
-      <c r="D260" s="34"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="29"/>
     </row>
     <row r="261" spans="1:4" ht="30.6">
       <c r="A261" s="27"/>
       <c r="B261" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C261" s="33"/>
-      <c r="D261" s="34"/>
+        <v>110</v>
+      </c>
+      <c r="C261" s="28"/>
+      <c r="D261" s="29"/>
     </row>
     <row r="262" spans="1:4" ht="30.6">
       <c r="A262" s="30">
@@ -3707,10 +3702,10 @@
       <c r="B262" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C262" s="31">
+      <c r="C262" s="41">
         <v>-6.5</v>
       </c>
-      <c r="D262" s="35">
+      <c r="D262" s="43">
         <v>-8</v>
       </c>
     </row>
@@ -3719,8 +3714,8 @@
       <c r="B263" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C263" s="31"/>
-      <c r="D263" s="35"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="43"/>
     </row>
     <row r="264" spans="1:4" ht="30.6">
       <c r="A264" s="27">
@@ -3729,10 +3724,10 @@
       <c r="B264" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C264" s="28">
+      <c r="C264" s="39">
         <v>-1.5</v>
       </c>
-      <c r="D264" s="29">
+      <c r="D264" s="42">
         <v>-1.5</v>
       </c>
     </row>
@@ -3741,17 +3736,17 @@
       <c r="B265" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C265" s="28"/>
-      <c r="D265" s="29"/>
+      <c r="C265" s="39"/>
+      <c r="D265" s="42"/>
     </row>
     <row r="266" spans="1:4" ht="20.399999999999999">
       <c r="A266" s="30">
         <v>44644</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C266" s="31">
+        <v>111</v>
+      </c>
+      <c r="C266" s="41">
         <v>-5</v>
       </c>
       <c r="D266" s="32">
@@ -3761,17 +3756,17 @@
     <row r="267" spans="1:4" ht="30.6">
       <c r="A267" s="30"/>
       <c r="B267" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C267" s="31"/>
+        <v>112</v>
+      </c>
+      <c r="C267" s="41"/>
       <c r="D267" s="32"/>
     </row>
     <row r="268" spans="1:4" ht="20.399999999999999">
       <c r="A268" s="30"/>
       <c r="B268" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C268" s="31"/>
+        <v>113</v>
+      </c>
+      <c r="C268" s="41"/>
       <c r="D268" s="32"/>
     </row>
     <row r="269" spans="1:4" ht="21" thickBot="1">
@@ -3779,7 +3774,7 @@
         <v>44644</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C269" s="18">
         <v>5</v>
@@ -3791,264 +3786,6 @@
   </sheetData>
   <autoFilter ref="C1:C239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="273">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="C235:C239"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="D222:D224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="D216:D218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="D219:D221"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="D186:D188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
     <mergeCell ref="A264:A265"/>
     <mergeCell ref="C264:C265"/>
     <mergeCell ref="D264:D265"/>
@@ -4064,6 +3801,264 @@
     <mergeCell ref="A262:A263"/>
     <mergeCell ref="C262:C263"/>
     <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="D216:D218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="D219:D221"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4074,21 +4069,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD116C0-D06B-4057-8F01-87DEDBE3B684}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
-        <v>119</v>
-      </c>
+      <c r="A1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" s="44" t="s">
-        <v>119</v>
-      </c>
+      <c r="A2" s="44"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -4112,7 +4103,7 @@
         <v>45138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C4" s="14">
         <v>0.81</v>
@@ -4126,7 +4117,7 @@
         <v>45107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C5" s="12">
         <v>0.74</v>
@@ -4140,7 +4131,7 @@
         <v>45077</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C6" s="14">
         <v>0.75</v>
@@ -4154,7 +4145,7 @@
         <v>45046</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C7" s="12">
         <v>0.72</v>
@@ -4168,7 +4159,7 @@
         <v>45016</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C8" s="14">
         <v>0.75</v>
@@ -4182,7 +4173,7 @@
         <v>44985</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="12">
         <v>0.67</v>
@@ -4196,7 +4187,7 @@
         <v>44957</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C10" s="14">
         <v>0.74</v>
@@ -4210,7 +4201,7 @@
         <v>44926</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C11" s="12">
         <v>0.7</v>
@@ -4224,7 +4215,7 @@
         <v>44895</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="14">
         <v>0.62</v>
@@ -4238,7 +4229,7 @@
         <v>44865</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C13" s="12">
         <v>0.5</v>
@@ -4252,7 +4243,7 @@
         <v>44834</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C14" s="14">
         <v>0.41</v>
@@ -4266,7 +4257,7 @@
         <v>44804</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C15" s="12">
         <v>0.37</v>
@@ -4280,7 +4271,7 @@
         <v>44773</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C16" s="14">
         <v>0.27</v>
@@ -4294,7 +4285,7 @@
         <v>44742</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C17" s="12">
         <v>0.21</v>
@@ -4308,7 +4299,7 @@
         <v>44712</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C18" s="14">
         <v>0.12</v>
@@ -4322,7 +4313,7 @@
         <v>44681</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C19" s="12">
         <v>0.02</v>
@@ -4336,7 +4327,7 @@
         <v>44681</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C20" s="9">
         <v>-0.02</v>
@@ -4350,7 +4341,7 @@
         <v>44681</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C21" s="12">
         <v>0.02</v>
@@ -4364,9 +4355,9 @@
         <v>44645</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="36">
+        <v>115</v>
+      </c>
+      <c r="C22" s="31">
         <v>145</v>
       </c>
       <c r="D22" s="32">
@@ -4376,9 +4367,9 @@
     <row r="23" spans="1:4" ht="30.6">
       <c r="A23" s="30"/>
       <c r="B23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="30.6">
@@ -4388,44 +4379,44 @@
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="28">
         <v>290</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="29">
         <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="27"/>
       <c r="B25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="27"/>
       <c r="B26" s="2">
         <v>10100086160634</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="30.6">
       <c r="A27" s="27"/>
       <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42"/>
+        <v>118</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4445,9 +4436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B8FB7-8FC1-4F30-8AAF-0A5C0C560968}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4462,25 +4453,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4498,13 +4489,13 @@
         <v>9955</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4522,13 +4513,13 @@
         <v>9805</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4546,13 +4537,13 @@
         <v>9655</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4570,13 +4561,13 @@
         <v>8155</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
         <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4594,13 +4585,13 @@
         <v>8005</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4618,13 +4609,13 @@
         <v>7855</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4641,13 +4632,13 @@
         <v>7705</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4664,10 +4655,10 @@
         <v>10015</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -4687,10 +4678,10 @@
         <v>9865</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -4710,10 +4701,10 @@
         <v>9565</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -4733,10 +4724,10 @@
         <v>9415</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -4756,10 +4747,10 @@
         <v>9265</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -4779,10 +4770,10 @@
         <v>9115</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -4802,10 +4793,10 @@
         <v>8965</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -4825,10 +4816,10 @@
         <v>8665</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -4848,10 +4839,10 @@
         <v>8515</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -4871,10 +4862,10 @@
         <v>8365</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -4894,10 +4885,10 @@
         <v>8215</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -4917,10 +4908,10 @@
         <v>8065</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -4940,10 +4931,10 @@
         <v>7915</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -4963,10 +4954,10 @@
         <v>7765</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -4986,10 +4977,10 @@
         <v>7615</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -5009,10 +5000,10 @@
         <v>7465</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -5032,10 +5023,10 @@
         <v>7165</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -5055,10 +5046,10 @@
         <v>7015</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -5078,10 +5069,10 @@
         <v>6865</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -5101,10 +5092,10 @@
         <v>6715</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -5124,10 +5115,10 @@
         <v>6565</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -5147,10 +5138,10 @@
         <v>6415</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -5170,10 +5161,10 @@
         <v>6265</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -5193,10 +5184,10 @@
         <v>6115</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -5216,10 +5207,10 @@
         <v>5965</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -5239,10 +5230,10 @@
         <v>5665</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -5262,10 +5253,10 @@
         <v>5515</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -5285,10 +5276,10 @@
         <v>5365</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -5308,10 +5299,10 @@
         <v>5215</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -5331,10 +5322,10 @@
         <v>5065</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -5354,10 +5345,10 @@
         <v>4915</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -5377,10 +5368,10 @@
         <v>4765</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -5400,10 +5391,10 @@
         <v>4615</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -5423,10 +5414,10 @@
         <v>4465</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -5446,10 +5437,10 @@
         <v>4165</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
         <v>48</v>
@@ -5469,10 +5460,10 @@
         <v>4015</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -5492,10 +5483,10 @@
         <v>3865</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -5515,10 +5506,10 @@
         <v>3715</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -5538,10 +5529,10 @@
         <v>3565</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -5561,10 +5552,10 @@
         <v>3265</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -5584,10 +5575,10 @@
         <v>3115</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -5607,10 +5598,10 @@
         <v>2965</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -5630,10 +5621,10 @@
         <v>2815</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -5653,10 +5644,10 @@
         <v>2665</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -5676,10 +5667,10 @@
         <v>2515</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -5699,10 +5690,10 @@
         <v>2365</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -5722,10 +5713,10 @@
         <v>1765</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -5745,10 +5736,10 @@
         <v>1615</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -5768,10 +5759,10 @@
         <v>1465</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -5791,11 +5782,11 @@
         <v>1315</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(E58="Bank Charges", "VANCITY")</f>
-        <v>VANCITY</v>
+        <f>IF(E58="Bank Charges", "V")</f>
+        <v>V</v>
       </c>
       <c r="G58" t="s">
         <v>64</v>
@@ -5815,10 +5806,10 @@
         <v>1321.5</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
@@ -5838,10 +5829,10 @@
         <v>1171.5</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G60" t="s">
         <v>66</v>
@@ -5861,10 +5852,10 @@
         <v>1021.5</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G61" t="s">
         <v>67</v>
@@ -5884,10 +5875,10 @@
         <v>871.5</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G62" t="s">
         <v>64</v>
@@ -5907,10 +5898,10 @@
         <v>878</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
@@ -5930,10 +5921,10 @@
         <v>878.6</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F64" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -5953,10 +5944,10 @@
         <v>578.6</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
         <v>71</v>
@@ -5976,13 +5967,13 @@
         <v>428.6</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5999,10 +5990,10 @@
         <v>2478.6</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
         <v>73</v>
@@ -6022,10 +6013,10 @@
         <v>2328.6</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G68" t="s">
         <v>74</v>
@@ -6045,10 +6036,10 @@
         <v>2178.6</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G69" t="s">
         <v>75</v>
@@ -6068,10 +6059,10 @@
         <v>2028.6</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G70" t="s">
         <v>64</v>
@@ -6091,10 +6082,10 @@
         <v>2035.1</v>
       </c>
       <c r="E71" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -6114,10 +6105,10 @@
         <v>1885.1</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -6137,10 +6128,10 @@
         <v>1585.1</v>
       </c>
       <c r="E73" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -6160,10 +6151,10 @@
         <v>1435.1</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -6183,10 +6174,10 @@
         <v>1285.0999999999999</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="G75" t="s">
         <v>81</v>
@@ -6206,10 +6197,10 @@
         <v>985.1</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G76" t="s">
         <v>82</v>
@@ -6229,10 +6220,10 @@
         <v>835.1</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G77" t="s">
         <v>64</v>
@@ -6252,10 +6243,10 @@
         <v>841.6</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G78" t="s">
         <v>68</v>
@@ -6275,10 +6266,10 @@
         <v>843.7</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -6298,10 +6289,10 @@
         <v>693.7</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G80" t="s">
         <v>86</v>
@@ -6321,10 +6312,10 @@
         <v>543.70000000000005</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6341,13 +6332,13 @@
         <v>885.37</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6364,10 +6355,10 @@
         <v>735.37</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6384,10 +6375,10 @@
         <v>585.37</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6404,13 +6395,13 @@
         <v>435.37</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6427,13 +6418,13 @@
         <v>285.37</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G86" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6450,10 +6441,10 @@
         <v>135.37</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G87" t="s">
         <v>64</v>
@@ -6473,13 +6464,13 @@
         <v>141.87</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
@@ -6496,13 +6487,13 @@
         <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6519,10 +6510,10 @@
         <v>-8</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G90" t="s">
         <v>64</v>
@@ -6542,10 +6533,10 @@
         <v>-1.5</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G91" t="s">
         <v>68</v>
@@ -6565,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G92" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6585,10 +6576,10 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6603,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FECBA6-F4F0-4DBA-A3FA-0614C9ACA0F7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/20230814_raw_data_100087848963.xlsx
+++ b/20230814_raw_data_100087848963.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B72F2-283B-4A32-8649-2CA103B38961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CF06C-6E93-4557-8E50-CA35095307EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_963" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -57,45 +57,18 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Bill payment-online</t>
-  </si>
-  <si>
-    <t>MEGSON FITZPATRICK INSURANCE</t>
-  </si>
-  <si>
-    <t>F938</t>
-  </si>
-  <si>
-    <t>Confirmation # 625937</t>
-  </si>
-  <si>
-    <t>e-Transfer credit</t>
-  </si>
-  <si>
     <t>Ref 20230705194805814315</t>
   </si>
   <si>
-    <t>Memo DONGLILIU</t>
-  </si>
-  <si>
     <t>Ref 20230704154714813333</t>
   </si>
   <si>
-    <t>Memo EDWINALBERTIMHOFF</t>
-  </si>
-  <si>
     <t>Ref 20230701204439814025</t>
   </si>
   <si>
-    <t>Memo XIAOPENGFENG</t>
-  </si>
-  <si>
     <t>Ref 20230630054126813522</t>
   </si>
   <si>
-    <t>Memo TRACYCARRIER</t>
-  </si>
-  <si>
     <t>Ref 20230606083305814404</t>
   </si>
   <si>
@@ -114,9 +87,6 @@
     <t>Ref 20230501121028813801</t>
   </si>
   <si>
-    <t>Memo SIDDHARTHSINHA</t>
-  </si>
-  <si>
     <t>Ref 20230501120957814861</t>
   </si>
   <si>
@@ -234,9 +204,6 @@
     <t>Ref 20220831214519202877</t>
   </si>
   <si>
-    <t>Charges applied to account</t>
-  </si>
-  <si>
     <t>Periodic Flat FeeCAPITALISE</t>
   </si>
   <si>
@@ -255,15 +222,9 @@
     <t>Ref 20220731110626668921</t>
   </si>
   <si>
-    <t>Memo EDWIN ALBERT IMHOFF</t>
-  </si>
-  <si>
     <t>Ref 20220730090736203088</t>
   </si>
   <si>
-    <t>Confirmation # 302614</t>
-  </si>
-  <si>
     <t>Ref 20220729074647203140</t>
   </si>
   <si>
@@ -285,42 +246,24 @@
     <t>Ref 20220603154529666891</t>
   </si>
   <si>
-    <t>Memo SIDDHARTH SINHA</t>
-  </si>
-  <si>
     <t>Ref 20220603095407666866</t>
   </si>
   <si>
     <t>Ref 20220602084104666385</t>
   </si>
   <si>
-    <t>Memo XIAOPENG FENG</t>
-  </si>
-  <si>
     <t>Ref 20220531130341666708</t>
   </si>
   <si>
-    <t>Memo TRACY CARRIER</t>
-  </si>
-  <si>
     <t>Ref 20220527095424662054</t>
   </si>
   <si>
-    <t>Memo DONGLI LIU</t>
-  </si>
-  <si>
     <t>Funds transfer-online</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>Exchange Amount $0.00</t>
   </si>
   <si>
-    <t>Memo Strata share of insurance</t>
-  </si>
-  <si>
     <t>Ref 20230801214714813541</t>
   </si>
   <si>
@@ -351,40 +294,16 @@
     <t>Ref 20220504132731666395</t>
   </si>
   <si>
-    <t>Cash deposit-branch</t>
-  </si>
-  <si>
-    <t>Memo 3594 showda close</t>
-  </si>
-  <si>
-    <t>Memo 3590 showda close</t>
-  </si>
-  <si>
     <t>Ref 20220501145322662822</t>
   </si>
   <si>
     <t>Ref 20220501145033666540</t>
   </si>
   <si>
-    <t>Interest to account</t>
-  </si>
-  <si>
     <t>Debit InterestCAPITALISE ACT</t>
   </si>
   <si>
-    <t>from Pay As You Go Chequing</t>
-  </si>
-  <si>
-    <t>Memo SL 2 May Strata Payment</t>
-  </si>
-  <si>
-    <t>Funds transfer</t>
-  </si>
-  <si>
     <t>Class B Membership Shares</t>
-  </si>
-  <si>
-    <t>Memo FUND SHARES</t>
   </si>
   <si>
     <t>Interest credited to account</t>
@@ -722,28 +641,31 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,19 +677,16 @@
     <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1073,2719 +992,1880 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999">
-      <c r="A2" s="36">
-        <v>45140</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="37">
-        <v>150</v>
-      </c>
-      <c r="D2" s="38">
-        <v>9955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30.6">
+    <row r="2" spans="1:7">
+      <c r="A2" s="37"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="30"/>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="31"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:7" ht="30.6">
+    <row r="4" spans="1:7">
       <c r="A4" s="30"/>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="31"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:7" ht="20.399999999999999">
-      <c r="A5" s="27">
-        <v>45140</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="28">
-        <v>150</v>
-      </c>
-      <c r="D5" s="29">
-        <v>9805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30.6">
+    <row r="5" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="27"/>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.399999999999999">
+      <c r="B6" s="2"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="27"/>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.399999999999999">
-      <c r="A8" s="30">
-        <v>45138</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="32">
-        <v>9655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30.6">
+      <c r="B7" s="2"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="30"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="30"/>
-      <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="31"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="30.6">
+    <row r="10" spans="1:7">
       <c r="A10" s="30"/>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="31"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="20.399999999999999">
-      <c r="A11" s="27">
-        <v>45135</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="28">
-        <v>150</v>
-      </c>
-      <c r="D11" s="29">
-        <v>8155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30.6">
+    <row r="11" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="27"/>
-      <c r="B12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="30.6">
+      <c r="B12" s="2"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="27"/>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.399999999999999">
-      <c r="A14" s="30">
-        <v>45133</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="31">
-        <v>150</v>
-      </c>
-      <c r="D14" s="32">
-        <v>8005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30.6">
+      <c r="B13" s="2"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="30"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="30"/>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="31"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="30.6">
+    <row r="16" spans="1:7">
       <c r="A16" s="30"/>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="31"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="20.399999999999999">
-      <c r="A17" s="27">
-        <v>45133</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="28">
-        <v>150</v>
-      </c>
-      <c r="D17" s="29">
-        <v>7855</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.6">
+    <row r="17" spans="1:4">
+      <c r="A17" s="27"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="27"/>
-      <c r="B18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" s="20" customFormat="1" ht="31.2" thickBot="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="20.399999999999999" customHeight="1">
-      <c r="A20" s="30">
-        <v>45118</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="41">
-        <v>-2310</v>
-      </c>
-      <c r="D20" s="32">
-        <v>7705</v>
-      </c>
+      <c r="A20" s="30"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="30.6" customHeight="1">
       <c r="A21" s="30"/>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="41"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="30"/>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="41"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="41"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="20.399999999999999">
-      <c r="A24" s="27">
-        <v>45112</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="28">
-        <v>150</v>
-      </c>
-      <c r="D24" s="29">
-        <v>10015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30.6">
+    <row r="24" spans="1:4">
+      <c r="A24" s="27"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="27"/>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.399999999999999">
+      <c r="B25" s="2"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="27"/>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.399999999999999">
-      <c r="A27" s="30">
-        <v>45111</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="31">
-        <v>300</v>
-      </c>
-      <c r="D27" s="32">
-        <v>9865</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.6">
+      <c r="B26" s="2"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="30"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="30"/>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="31"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:4" ht="30.6">
+    <row r="29" spans="1:4">
       <c r="A29" s="30"/>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="31"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="20.399999999999999">
-      <c r="A30" s="27">
-        <v>45108</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="28">
-        <v>150</v>
-      </c>
-      <c r="D30" s="29">
-        <v>9565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30.6">
+    <row r="30" spans="1:4">
+      <c r="A30" s="27"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="27"/>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:4" ht="30.6">
+      <c r="B31" s="2"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="27"/>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" ht="20.399999999999999">
-      <c r="A33" s="30">
-        <v>45107</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="31">
-        <v>150</v>
-      </c>
-      <c r="D33" s="32">
-        <v>9415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30.6">
+      <c r="B32" s="2"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="30"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="31"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="32"/>
     </row>
-    <row r="35" spans="1:4" ht="30.6">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="31"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="32"/>
     </row>
-    <row r="36" spans="1:4" ht="20.399999999999999">
-      <c r="A36" s="27">
-        <v>45083</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="28">
-        <v>150</v>
-      </c>
-      <c r="D36" s="29">
-        <v>9265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30.6">
+    <row r="36" spans="1:4">
+      <c r="A36" s="27"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="27"/>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:4" ht="20.399999999999999">
+      <c r="B37" s="2"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="27"/>
-      <c r="B38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" ht="20.399999999999999">
-      <c r="A39" s="30">
-        <v>45076</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="31">
-        <v>150</v>
-      </c>
-      <c r="D39" s="32">
-        <v>9115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30.6">
+      <c r="B38" s="2"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="30"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="30"/>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="31"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="32"/>
     </row>
-    <row r="41" spans="1:4" ht="30.6">
+    <row r="41" spans="1:4">
       <c r="A41" s="30"/>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="31"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="32"/>
     </row>
-    <row r="42" spans="1:4" ht="20.399999999999999">
-      <c r="A42" s="27">
-        <v>45047</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="28">
-        <v>300</v>
-      </c>
-      <c r="D42" s="29">
-        <v>8965</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30.6">
+    <row r="42" spans="1:4">
+      <c r="A42" s="27"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="27"/>
-      <c r="B43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="1:4" ht="30.6">
+      <c r="B43" s="2"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="27"/>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="1:4" ht="20.399999999999999">
-      <c r="A45" s="30">
-        <v>45047</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="31">
-        <v>150</v>
-      </c>
-      <c r="D45" s="32">
-        <v>8665</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.6">
+      <c r="B44" s="2"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="30"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="30"/>
-      <c r="B46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="31"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="32"/>
     </row>
-    <row r="47" spans="1:4" ht="20.399999999999999">
+    <row r="47" spans="1:4">
       <c r="A47" s="30"/>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="31"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="32"/>
     </row>
-    <row r="48" spans="1:4" ht="20.399999999999999">
-      <c r="A48" s="27">
-        <v>45047</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="28">
-        <v>150</v>
-      </c>
-      <c r="D48" s="29">
-        <v>8515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30.6">
+    <row r="48" spans="1:4">
+      <c r="A48" s="27"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="27"/>
-      <c r="B49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="1:4" ht="30.6">
+      <c r="B49" s="2"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="27"/>
-      <c r="B50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="1:4" ht="20.399999999999999">
-      <c r="A51" s="30">
-        <v>45047</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="31">
-        <v>150</v>
-      </c>
-      <c r="D51" s="32">
-        <v>8365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30.6">
+      <c r="B50" s="2"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="30"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="30"/>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="31"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="32"/>
     </row>
-    <row r="53" spans="1:4" ht="30.6">
+    <row r="53" spans="1:4">
       <c r="A53" s="30"/>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="31"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:4" ht="20.399999999999999">
-      <c r="A54" s="27">
-        <v>45047</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="28">
-        <v>150</v>
-      </c>
-      <c r="D54" s="29">
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30.6">
+    <row r="54" spans="1:4">
+      <c r="A54" s="27"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="27"/>
-      <c r="B55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" spans="1:4" ht="30.6">
+      <c r="B55" s="2"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="27"/>
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-    </row>
-    <row r="57" spans="1:4" ht="20.399999999999999">
-      <c r="A57" s="30">
-        <v>45047</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="31">
-        <v>150</v>
-      </c>
-      <c r="D57" s="32">
-        <v>8065</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30.6">
+      <c r="B56" s="2"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="30"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="30"/>
-      <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="31"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="32"/>
     </row>
-    <row r="59" spans="1:4" ht="30.6">
+    <row r="59" spans="1:4">
       <c r="A59" s="30"/>
-      <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="31"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="32"/>
     </row>
-    <row r="60" spans="1:4" ht="20.399999999999999">
-      <c r="A60" s="27">
-        <v>45044</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="28">
-        <v>150</v>
-      </c>
-      <c r="D60" s="29">
-        <v>7915</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30.6">
+    <row r="60" spans="1:4">
+      <c r="A60" s="27"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="27"/>
-      <c r="B61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="1:4" ht="30.6">
+      <c r="B61" s="2"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="27"/>
-      <c r="B62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-    </row>
-    <row r="63" spans="1:4" ht="20.399999999999999">
-      <c r="A63" s="30">
-        <v>45017</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="31">
-        <v>150</v>
-      </c>
-      <c r="D63" s="32">
-        <v>7765</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30.6">
+      <c r="B62" s="2"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="30"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="32"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="30"/>
-      <c r="B64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="31"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="32"/>
     </row>
-    <row r="65" spans="1:4" ht="30.6">
+    <row r="65" spans="1:4">
       <c r="A65" s="30"/>
-      <c r="B65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="31"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="32"/>
     </row>
-    <row r="66" spans="1:4" ht="20.399999999999999">
-      <c r="A66" s="27">
-        <v>45016</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="28">
-        <v>150</v>
-      </c>
-      <c r="D66" s="29">
-        <v>7615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30.6">
+    <row r="66" spans="1:4">
+      <c r="A66" s="27"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="27"/>
-      <c r="B67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" spans="1:4" ht="30.6">
+      <c r="B67" s="2"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="27"/>
-      <c r="B68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-    </row>
-    <row r="69" spans="1:4" ht="20.399999999999999">
-      <c r="A69" s="30">
-        <v>45016</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="31">
-        <v>300</v>
-      </c>
-      <c r="D69" s="32">
-        <v>7465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30.6">
+      <c r="B68" s="2"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="30"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="32"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="30"/>
-      <c r="B70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="31"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="36"/>
       <c r="D70" s="32"/>
     </row>
-    <row r="71" spans="1:4" ht="30.6">
+    <row r="71" spans="1:4">
       <c r="A71" s="30"/>
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="31"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="32"/>
     </row>
-    <row r="72" spans="1:4" ht="20.399999999999999">
-      <c r="A72" s="27">
-        <v>45015</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="28">
-        <v>150</v>
-      </c>
-      <c r="D72" s="29">
-        <v>7165</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30.6">
+    <row r="72" spans="1:4">
+      <c r="A72" s="27"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="34"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="27"/>
-      <c r="B73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-    </row>
-    <row r="74" spans="1:4" ht="20.399999999999999">
+      <c r="B73" s="2"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="34"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="27"/>
-      <c r="B74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-    </row>
-    <row r="75" spans="1:4" ht="20.399999999999999">
-      <c r="A75" s="30">
-        <v>44987</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="31">
-        <v>150</v>
-      </c>
-      <c r="D75" s="32">
-        <v>7015</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="30.6">
+      <c r="B74" s="2"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="30"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="30"/>
-      <c r="B76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C76" s="31"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="32"/>
     </row>
-    <row r="77" spans="1:4" ht="20.399999999999999">
+    <row r="77" spans="1:4">
       <c r="A77" s="30"/>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="31"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="32"/>
     </row>
-    <row r="78" spans="1:4" ht="20.399999999999999">
-      <c r="A78" s="27">
-        <v>44987</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="28">
-        <v>150</v>
-      </c>
-      <c r="D78" s="29">
-        <v>6865</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30.6">
+    <row r="78" spans="1:4">
+      <c r="A78" s="27"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="34"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="27"/>
-      <c r="B79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-    </row>
-    <row r="80" spans="1:4" ht="30.6">
+      <c r="B79" s="2"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="34"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="27"/>
-      <c r="B80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-    </row>
-    <row r="81" spans="1:4" ht="20.399999999999999">
-      <c r="A81" s="30">
-        <v>44987</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="31">
-        <v>150</v>
-      </c>
-      <c r="D81" s="32">
-        <v>6715</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="30.6">
+      <c r="B80" s="2"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="30"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="32"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="30"/>
-      <c r="B82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="31"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="32"/>
     </row>
-    <row r="83" spans="1:4" ht="30.6">
+    <row r="83" spans="1:4">
       <c r="A83" s="30"/>
-      <c r="B83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="31"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="32"/>
     </row>
-    <row r="84" spans="1:4" ht="20.399999999999999">
-      <c r="A84" s="27">
-        <v>44986</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="28">
-        <v>150</v>
-      </c>
-      <c r="D84" s="29">
-        <v>6565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="30.6">
+    <row r="84" spans="1:4">
+      <c r="A84" s="27"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="27"/>
-      <c r="B85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-    </row>
-    <row r="86" spans="1:4" ht="30.6">
+      <c r="B85" s="2"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34"/>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="27"/>
-      <c r="B86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
-    </row>
-    <row r="87" spans="1:4" ht="20.399999999999999">
-      <c r="A87" s="30">
-        <v>44986</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="31">
-        <v>150</v>
-      </c>
-      <c r="D87" s="32">
-        <v>6415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30.6">
+      <c r="B86" s="2"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="34"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="30"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="32"/>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="30"/>
-      <c r="B88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="31"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="36"/>
       <c r="D88" s="32"/>
     </row>
-    <row r="89" spans="1:4" ht="30.6">
+    <row r="89" spans="1:4">
       <c r="A89" s="30"/>
-      <c r="B89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="31"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="36"/>
       <c r="D89" s="32"/>
     </row>
-    <row r="90" spans="1:4" ht="20.399999999999999">
-      <c r="A90" s="27">
-        <v>44981</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="28">
-        <v>150</v>
-      </c>
-      <c r="D90" s="29">
-        <v>6265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="30.6">
+    <row r="90" spans="1:4">
+      <c r="A90" s="27"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="34"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="27"/>
-      <c r="B91" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-    </row>
-    <row r="92" spans="1:4" ht="30.6">
+      <c r="B91" s="2"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="27"/>
-      <c r="B92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="29"/>
-    </row>
-    <row r="93" spans="1:4" ht="20.399999999999999">
-      <c r="A93" s="30">
-        <v>44958</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="31">
-        <v>150</v>
-      </c>
-      <c r="D93" s="32">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="30.6">
+      <c r="B92" s="2"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="34"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="30"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="32"/>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="30"/>
-      <c r="B94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="31"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="32"/>
     </row>
-    <row r="95" spans="1:4" ht="30.6">
+    <row r="95" spans="1:4">
       <c r="A95" s="30"/>
-      <c r="B95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="31"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="32"/>
     </row>
-    <row r="96" spans="1:4" ht="20.399999999999999">
-      <c r="A96" s="27">
-        <v>44958</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="28">
-        <v>300</v>
-      </c>
-      <c r="D96" s="29">
-        <v>5965</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="30.6">
+    <row r="96" spans="1:4">
+      <c r="A96" s="27"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="34"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="27"/>
-      <c r="B97" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-    </row>
-    <row r="98" spans="1:4" ht="30.6">
+      <c r="B97" s="2"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="34"/>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="27"/>
-      <c r="B98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-    </row>
-    <row r="99" spans="1:4" ht="20.399999999999999">
-      <c r="A99" s="30">
-        <v>44958</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="31">
-        <v>150</v>
-      </c>
-      <c r="D99" s="32">
-        <v>5665</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30.6">
+      <c r="B98" s="2"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="34"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="30"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="32"/>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="30"/>
-      <c r="B100" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="31"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="36"/>
       <c r="D100" s="32"/>
     </row>
-    <row r="101" spans="1:4" ht="20.399999999999999">
+    <row r="101" spans="1:4">
       <c r="A101" s="30"/>
-      <c r="B101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="31"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="36"/>
       <c r="D101" s="32"/>
     </row>
-    <row r="102" spans="1:4" ht="20.399999999999999">
-      <c r="A102" s="27">
-        <v>44957</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="28">
-        <v>150</v>
-      </c>
-      <c r="D102" s="29">
-        <v>5515</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30.6">
+    <row r="102" spans="1:4">
+      <c r="A102" s="27"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="27"/>
-      <c r="B103" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="1:4" ht="30.6">
+      <c r="B103" s="2"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="27"/>
-      <c r="B104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-    </row>
-    <row r="105" spans="1:4" ht="20.399999999999999">
-      <c r="A105" s="30">
-        <v>44928</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="31">
-        <v>150</v>
-      </c>
-      <c r="D105" s="32">
-        <v>5365</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="30.6">
+      <c r="B104" s="2"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="34"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="30"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="32"/>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="30"/>
-      <c r="B106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="31"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="36"/>
       <c r="D106" s="32"/>
     </row>
-    <row r="107" spans="1:4" ht="30.6">
+    <row r="107" spans="1:4">
       <c r="A107" s="30"/>
-      <c r="B107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="31"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="36"/>
       <c r="D107" s="32"/>
     </row>
-    <row r="108" spans="1:4" ht="20.399999999999999">
-      <c r="A108" s="27">
-        <v>44927</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="28">
-        <v>150</v>
-      </c>
-      <c r="D108" s="29">
-        <v>5215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30.6">
+    <row r="108" spans="1:4">
+      <c r="A108" s="27"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="27"/>
-      <c r="B109" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
-    </row>
-    <row r="110" spans="1:4" ht="20.399999999999999">
+      <c r="B109" s="2"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="34"/>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="27"/>
-      <c r="B110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="29"/>
-    </row>
-    <row r="111" spans="1:4" ht="20.399999999999999">
-      <c r="A111" s="30">
-        <v>44926</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="31">
-        <v>150</v>
-      </c>
-      <c r="D111" s="32">
-        <v>5065</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="30.6">
+      <c r="B110" s="2"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="30"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="32"/>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="30"/>
-      <c r="B112" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C112" s="31"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="36"/>
       <c r="D112" s="32"/>
     </row>
-    <row r="113" spans="1:4" ht="30.6">
+    <row r="113" spans="1:4">
       <c r="A113" s="30"/>
-      <c r="B113" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="31"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="36"/>
       <c r="D113" s="32"/>
     </row>
-    <row r="114" spans="1:4" ht="20.399999999999999">
-      <c r="A114" s="27">
-        <v>44922</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="28">
-        <v>150</v>
-      </c>
-      <c r="D114" s="29">
-        <v>4915</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="30.6">
+    <row r="114" spans="1:4">
+      <c r="A114" s="27"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="34"/>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="27"/>
-      <c r="B115" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
-    </row>
-    <row r="116" spans="1:4" ht="30.6">
+      <c r="B115" s="2"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="34"/>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="27"/>
-      <c r="B116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="29"/>
-    </row>
-    <row r="117" spans="1:4" ht="20.399999999999999">
-      <c r="A117" s="30">
-        <v>44922</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="31">
-        <v>150</v>
-      </c>
-      <c r="D117" s="32">
-        <v>4765</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="30.6">
+      <c r="B116" s="2"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="34"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="30"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="32"/>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="30"/>
-      <c r="B118" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C118" s="31"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="36"/>
       <c r="D118" s="32"/>
     </row>
-    <row r="119" spans="1:4" ht="30.6">
+    <row r="119" spans="1:4">
       <c r="A119" s="30"/>
-      <c r="B119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="31"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="36"/>
       <c r="D119" s="32"/>
     </row>
-    <row r="120" spans="1:4" ht="20.399999999999999">
-      <c r="A120" s="27">
-        <v>44900</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="28">
-        <v>150</v>
-      </c>
-      <c r="D120" s="29">
-        <v>4615</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="30.6">
+    <row r="120" spans="1:4">
+      <c r="A120" s="27"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="34"/>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="27"/>
-      <c r="B121" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="29"/>
-    </row>
-    <row r="122" spans="1:4" ht="20.399999999999999">
+      <c r="B121" s="2"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="34"/>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="27"/>
-      <c r="B122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="29"/>
-    </row>
-    <row r="123" spans="1:4" ht="20.399999999999999">
-      <c r="A123" s="30">
-        <v>44900</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="31">
-        <v>300</v>
-      </c>
-      <c r="D123" s="32">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="30.6">
+      <c r="B122" s="2"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="34"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="30"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="32"/>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="30"/>
-      <c r="B124" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" s="31"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="36"/>
       <c r="D124" s="32"/>
     </row>
-    <row r="125" spans="1:4" ht="30.6">
+    <row r="125" spans="1:4">
       <c r="A125" s="30"/>
-      <c r="B125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="31"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="36"/>
       <c r="D125" s="32"/>
     </row>
-    <row r="126" spans="1:4" ht="20.399999999999999">
-      <c r="A126" s="27">
-        <v>44896</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="28">
-        <v>150</v>
-      </c>
-      <c r="D126" s="29">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="30.6">
+    <row r="126" spans="1:4">
+      <c r="A126" s="27"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="34"/>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="27"/>
-      <c r="B127" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C127" s="28"/>
-      <c r="D127" s="29"/>
-    </row>
-    <row r="128" spans="1:4" ht="30.6">
+      <c r="B127" s="2"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="34"/>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="27"/>
-      <c r="B128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="28"/>
-      <c r="D128" s="29"/>
-    </row>
-    <row r="129" spans="1:4" ht="20.399999999999999">
-      <c r="A129" s="30">
-        <v>44896</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="31">
-        <v>150</v>
-      </c>
-      <c r="D129" s="32">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="30.6">
+      <c r="B128" s="2"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="34"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="30"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="32"/>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="30"/>
-      <c r="B130" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C130" s="31"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="36"/>
       <c r="D130" s="32"/>
     </row>
-    <row r="131" spans="1:4" ht="30.6">
+    <row r="131" spans="1:4">
       <c r="A131" s="30"/>
-      <c r="B131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" s="31"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="36"/>
       <c r="D131" s="32"/>
     </row>
-    <row r="132" spans="1:4" ht="20.399999999999999">
-      <c r="A132" s="27">
-        <v>44879</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="28">
-        <v>150</v>
-      </c>
-      <c r="D132" s="29">
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="30.6">
+    <row r="132" spans="1:4">
+      <c r="A132" s="27"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="34"/>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="27"/>
-      <c r="B133" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="29"/>
-    </row>
-    <row r="134" spans="1:4" ht="30.6">
+      <c r="B133" s="2"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="34"/>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="27"/>
-      <c r="B134" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" s="28"/>
-      <c r="D134" s="29"/>
-    </row>
-    <row r="135" spans="1:4" ht="20.399999999999999">
-      <c r="A135" s="30">
-        <v>44866</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="31">
-        <v>150</v>
-      </c>
-      <c r="D135" s="32">
-        <v>3715</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="30.6">
+      <c r="B134" s="2"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="34"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="30"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="32"/>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="30"/>
-      <c r="B136" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C136" s="31"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="36"/>
       <c r="D136" s="32"/>
     </row>
-    <row r="137" spans="1:4" ht="30.6">
+    <row r="137" spans="1:4">
       <c r="A137" s="30"/>
-      <c r="B137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" s="31"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="36"/>
       <c r="D137" s="32"/>
     </row>
-    <row r="138" spans="1:4" ht="20.399999999999999">
-      <c r="A138" s="27">
-        <v>44866</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="28">
-        <v>300</v>
-      </c>
-      <c r="D138" s="29">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="30.6">
+    <row r="138" spans="1:4">
+      <c r="A138" s="27"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="34"/>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="27"/>
-      <c r="B139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C139" s="28"/>
-      <c r="D139" s="29"/>
-    </row>
-    <row r="140" spans="1:4" ht="30.6">
+      <c r="B139" s="2"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="27"/>
-      <c r="B140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="28"/>
-      <c r="D140" s="29"/>
-    </row>
-    <row r="141" spans="1:4" ht="20.399999999999999">
-      <c r="A141" s="30">
-        <v>44866</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="31">
-        <v>150</v>
-      </c>
-      <c r="D141" s="32">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="30.6">
+      <c r="B140" s="2"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="34"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="30"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="32"/>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="30"/>
-      <c r="B142" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C142" s="31"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="36"/>
       <c r="D142" s="32"/>
     </row>
-    <row r="143" spans="1:4" ht="20.399999999999999">
+    <row r="143" spans="1:4">
       <c r="A143" s="30"/>
-      <c r="B143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="31"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="36"/>
       <c r="D143" s="32"/>
     </row>
-    <row r="144" spans="1:4" ht="20.399999999999999">
-      <c r="A144" s="27">
-        <v>44862</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="28">
-        <v>150</v>
-      </c>
-      <c r="D144" s="29">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="30.6">
+    <row r="144" spans="1:4">
+      <c r="A144" s="27"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="34"/>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="27"/>
-      <c r="B145" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="29"/>
-    </row>
-    <row r="146" spans="1:4" ht="30.6">
+      <c r="B145" s="2"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="34"/>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="27"/>
-      <c r="B146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="28"/>
-      <c r="D146" s="29"/>
-    </row>
-    <row r="147" spans="1:4" ht="20.399999999999999">
-      <c r="A147" s="30">
-        <v>44838</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="31">
-        <v>150</v>
-      </c>
-      <c r="D147" s="32">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="30.6">
+      <c r="B146" s="2"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="34"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="30"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="32"/>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="30"/>
-      <c r="B148" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C148" s="31"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="36"/>
       <c r="D148" s="32"/>
     </row>
-    <row r="149" spans="1:4" ht="30.6">
+    <row r="149" spans="1:4">
       <c r="A149" s="30"/>
-      <c r="B149" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C149" s="31"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="36"/>
       <c r="D149" s="32"/>
     </row>
-    <row r="150" spans="1:4" ht="20.399999999999999">
-      <c r="A150" s="27">
-        <v>44836</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="28">
-        <v>150</v>
-      </c>
-      <c r="D150" s="29">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="30.6">
+    <row r="150" spans="1:4">
+      <c r="A150" s="27"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="34"/>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="27"/>
-      <c r="B151" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C151" s="28"/>
-      <c r="D151" s="29"/>
-    </row>
-    <row r="152" spans="1:4" ht="30.6">
+      <c r="B151" s="2"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="34"/>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="27"/>
-      <c r="B152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="28"/>
-      <c r="D152" s="29"/>
-    </row>
-    <row r="153" spans="1:4" ht="20.399999999999999">
-      <c r="A153" s="30">
-        <v>44836</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="31">
-        <v>150</v>
-      </c>
-      <c r="D153" s="32">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="30.6">
+      <c r="B152" s="2"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="34"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="30"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="32"/>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="30"/>
-      <c r="B154" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C154" s="31"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="36"/>
       <c r="D154" s="32"/>
     </row>
-    <row r="155" spans="1:4" ht="20.399999999999999">
+    <row r="155" spans="1:4">
       <c r="A155" s="30"/>
-      <c r="B155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" s="31"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="36"/>
       <c r="D155" s="32"/>
     </row>
-    <row r="156" spans="1:4" ht="20.399999999999999">
-      <c r="A156" s="27">
-        <v>44834</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="28">
-        <v>150</v>
-      </c>
-      <c r="D156" s="29">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="30.6">
+    <row r="156" spans="1:4">
+      <c r="A156" s="27"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="34"/>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="27"/>
-      <c r="B157" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C157" s="28"/>
-      <c r="D157" s="29"/>
-    </row>
-    <row r="158" spans="1:4" ht="30.6">
+      <c r="B157" s="2"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="34"/>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="27"/>
-      <c r="B158" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C158" s="28"/>
-      <c r="D158" s="29"/>
-    </row>
-    <row r="159" spans="1:4" ht="20.399999999999999">
-      <c r="A159" s="30">
-        <v>44833</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="31">
-        <v>600</v>
-      </c>
-      <c r="D159" s="32">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="30.6">
+      <c r="B158" s="2"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="34"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="30"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="32"/>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="30"/>
-      <c r="B160" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C160" s="31"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="36"/>
       <c r="D160" s="32"/>
     </row>
-    <row r="161" spans="1:4" ht="30.6">
+    <row r="161" spans="1:4">
       <c r="A161" s="30"/>
-      <c r="B161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="31"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="36"/>
       <c r="D161" s="32"/>
     </row>
-    <row r="162" spans="1:4" ht="20.399999999999999">
-      <c r="A162" s="27">
-        <v>44813</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="28">
-        <v>150</v>
-      </c>
-      <c r="D162" s="29">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="30.6">
+    <row r="162" spans="1:4">
+      <c r="A162" s="27"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="27"/>
-      <c r="B163" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C163" s="28"/>
-      <c r="D163" s="29"/>
-    </row>
-    <row r="164" spans="1:4" ht="30.6">
+      <c r="B163" s="2"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="34"/>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="27"/>
-      <c r="B164" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C164" s="28"/>
-      <c r="D164" s="29"/>
-    </row>
-    <row r="165" spans="1:4" ht="20.399999999999999">
-      <c r="A165" s="30">
-        <v>44805</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="31">
-        <v>150</v>
-      </c>
-      <c r="D165" s="32">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="30.6">
+      <c r="B164" s="2"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="34"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="30"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="32"/>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="30"/>
-      <c r="B166" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C166" s="31"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="36"/>
       <c r="D166" s="32"/>
     </row>
-    <row r="167" spans="1:4" ht="30.6">
+    <row r="167" spans="1:4">
       <c r="A167" s="30"/>
-      <c r="B167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" s="31"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="36"/>
       <c r="D167" s="32"/>
     </row>
-    <row r="168" spans="1:4" ht="20.399999999999999">
-      <c r="A168" s="27">
-        <v>44805</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="28">
-        <v>150</v>
-      </c>
-      <c r="D168" s="29">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="30.6">
+    <row r="168" spans="1:4">
+      <c r="A168" s="27"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="34"/>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="27"/>
-      <c r="B169" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C169" s="28"/>
-      <c r="D169" s="29"/>
-    </row>
-    <row r="170" spans="1:4" ht="30.6">
+      <c r="B169" s="2"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="27"/>
-      <c r="B170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="28"/>
-      <c r="D170" s="29"/>
-    </row>
-    <row r="171" spans="1:4" ht="30.6">
-      <c r="A171" s="30">
-        <v>44804</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C171" s="41">
-        <v>-6.5</v>
-      </c>
-      <c r="D171" s="32">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="30.6">
+      <c r="B170" s="2"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="34"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="30"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="32"/>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="30"/>
-      <c r="B172" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C172" s="41"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="31"/>
       <c r="D172" s="32"/>
     </row>
-    <row r="173" spans="1:4" ht="20.399999999999999">
-      <c r="A173" s="27">
-        <v>44804</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="28">
-        <v>150</v>
-      </c>
-      <c r="D173" s="29">
-        <v>1321.5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="30.6">
+    <row r="173" spans="1:4">
+      <c r="A173" s="27"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="34"/>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="27"/>
-      <c r="B174" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C174" s="28"/>
-      <c r="D174" s="29"/>
-    </row>
-    <row r="175" spans="1:4" ht="20.399999999999999">
+      <c r="B174" s="2"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="34"/>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="27"/>
-      <c r="B175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" s="28"/>
-      <c r="D175" s="29"/>
-    </row>
-    <row r="176" spans="1:4" ht="20.399999999999999">
-      <c r="A176" s="30">
-        <v>44774</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="31">
-        <v>150</v>
-      </c>
-      <c r="D176" s="32">
-        <v>1171.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="30.6">
+      <c r="B175" s="2"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="30"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="32"/>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="30"/>
-      <c r="B177" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C177" s="31"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="36"/>
       <c r="D177" s="32"/>
     </row>
-    <row r="178" spans="1:4" ht="30.6">
+    <row r="178" spans="1:4">
       <c r="A178" s="30"/>
-      <c r="B178" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C178" s="31"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="36"/>
       <c r="D178" s="32"/>
     </row>
-    <row r="179" spans="1:4" ht="20.399999999999999">
-      <c r="A179" s="27">
-        <v>44774</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="28">
-        <v>150</v>
-      </c>
-      <c r="D179" s="29">
-        <v>1021.5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="30.6">
+    <row r="179" spans="1:4">
+      <c r="A179" s="27"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="34"/>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="27"/>
-      <c r="B180" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C180" s="28"/>
-      <c r="D180" s="29"/>
-    </row>
-    <row r="181" spans="1:4" ht="30.6">
+      <c r="B180" s="2"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="34"/>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="27"/>
-      <c r="B181" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="28"/>
-      <c r="D181" s="29"/>
-    </row>
-    <row r="182" spans="1:4" ht="30.6">
-      <c r="A182" s="30">
-        <v>44773</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C182" s="41">
-        <v>-6.5</v>
-      </c>
-      <c r="D182" s="32">
-        <v>871.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="30.6">
+      <c r="B181" s="2"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="34"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="30"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="32"/>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="30"/>
-      <c r="B183" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C183" s="41"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="31"/>
       <c r="D183" s="32"/>
     </row>
-    <row r="184" spans="1:4" ht="30.6">
-      <c r="A184" s="27">
-        <v>44773</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C184" s="39">
-        <v>-0.6</v>
-      </c>
-      <c r="D184" s="29">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="30.6">
+    <row r="184" spans="1:4">
+      <c r="A184" s="27"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="34"/>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="27"/>
-      <c r="B185" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C185" s="39"/>
-      <c r="D185" s="29"/>
-    </row>
-    <row r="186" spans="1:4" ht="20.399999999999999">
-      <c r="A186" s="30">
-        <v>44773</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="31">
-        <v>300</v>
-      </c>
-      <c r="D186" s="32">
-        <v>878.6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="30.6">
+      <c r="B185" s="2"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="34"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="30"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="32"/>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="30"/>
-      <c r="B187" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C187" s="31"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="36"/>
       <c r="D187" s="32"/>
     </row>
-    <row r="188" spans="1:4" ht="40.799999999999997">
+    <row r="188" spans="1:4">
       <c r="A188" s="30"/>
-      <c r="B188" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C188" s="31"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="36"/>
       <c r="D188" s="32"/>
     </row>
-    <row r="189" spans="1:4" ht="20.399999999999999">
-      <c r="A189" s="27">
-        <v>44772</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="28">
-        <v>150</v>
-      </c>
-      <c r="D189" s="29">
-        <v>578.6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="30.6">
+    <row r="189" spans="1:4">
+      <c r="A189" s="27"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="27"/>
-      <c r="B190" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C190" s="28"/>
-      <c r="D190" s="29"/>
-    </row>
-    <row r="191" spans="1:4" ht="30.6">
+      <c r="B190" s="2"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="34"/>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="27"/>
-      <c r="B191" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" s="28"/>
-      <c r="D191" s="29"/>
-    </row>
-    <row r="192" spans="1:4" ht="20.399999999999999">
-      <c r="A192" s="30">
-        <v>44771</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="41">
-        <v>-2050</v>
-      </c>
-      <c r="D192" s="32">
-        <v>428.6</v>
-      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="34"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="30"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="32"/>
     </row>
     <row r="193" spans="1:4" ht="40.799999999999997" customHeight="1">
       <c r="A193" s="30"/>
-      <c r="B193" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="41"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="31"/>
       <c r="D193" s="32"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="30"/>
-      <c r="B194" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="41"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="31"/>
       <c r="D194" s="32"/>
     </row>
-    <row r="195" spans="1:4" ht="20.399999999999999">
+    <row r="195" spans="1:4">
       <c r="A195" s="30"/>
-      <c r="B195" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C195" s="41"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="31"/>
       <c r="D195" s="32"/>
     </row>
-    <row r="196" spans="1:4" ht="20.399999999999999">
-      <c r="A196" s="27">
-        <v>44771</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="28">
-        <v>150</v>
-      </c>
-      <c r="D196" s="29">
-        <v>2478.6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="30.6">
+    <row r="196" spans="1:4">
+      <c r="A196" s="27"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="34"/>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="27"/>
-      <c r="B197" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C197" s="28"/>
-      <c r="D197" s="29"/>
-    </row>
-    <row r="198" spans="1:4" ht="20.399999999999999">
+      <c r="B197" s="2"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="34"/>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="27"/>
-      <c r="B198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="28"/>
-      <c r="D198" s="29"/>
-    </row>
-    <row r="199" spans="1:4" ht="20.399999999999999">
-      <c r="A199" s="30">
-        <v>44743</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="31">
-        <v>150</v>
-      </c>
-      <c r="D199" s="32">
-        <v>2328.6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="30.6">
+      <c r="B198" s="2"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="30"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="32"/>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="30"/>
-      <c r="B200" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C200" s="31"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="36"/>
       <c r="D200" s="32"/>
     </row>
-    <row r="201" spans="1:4" ht="30.6">
+    <row r="201" spans="1:4">
       <c r="A201" s="30"/>
-      <c r="B201" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" s="31"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="36"/>
       <c r="D201" s="32"/>
     </row>
-    <row r="202" spans="1:4" ht="20.399999999999999">
-      <c r="A202" s="27">
-        <v>44743</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="28">
-        <v>150</v>
-      </c>
-      <c r="D202" s="29">
-        <v>2178.6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="30.6">
+    <row r="202" spans="1:4">
+      <c r="A202" s="27"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="34"/>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="27"/>
-      <c r="B203" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C203" s="28"/>
-      <c r="D203" s="29"/>
-    </row>
-    <row r="204" spans="1:4" ht="30.6">
+      <c r="B203" s="2"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="34"/>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="27"/>
-      <c r="B204" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C204" s="28"/>
-      <c r="D204" s="29"/>
-    </row>
-    <row r="205" spans="1:4" ht="30.6">
-      <c r="A205" s="30">
-        <v>44742</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C205" s="41">
-        <v>-6.5</v>
-      </c>
-      <c r="D205" s="32">
-        <v>2028.6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="30.6">
+      <c r="B204" s="2"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="34"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="30"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="32"/>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="30"/>
-      <c r="B206" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C206" s="41"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="31"/>
       <c r="D206" s="32"/>
     </row>
-    <row r="207" spans="1:4" ht="20.399999999999999">
-      <c r="A207" s="27">
-        <v>44742</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="28">
-        <v>150</v>
-      </c>
-      <c r="D207" s="29">
-        <v>2035.1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="30.6">
+    <row r="207" spans="1:4">
+      <c r="A207" s="27"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="33"/>
+      <c r="D207" s="34"/>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="27"/>
-      <c r="B208" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C208" s="28"/>
-      <c r="D208" s="29"/>
-    </row>
-    <row r="209" spans="1:4" ht="30.6">
+      <c r="B208" s="2"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="34"/>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="27"/>
-      <c r="B209" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C209" s="28"/>
-      <c r="D209" s="29"/>
-    </row>
-    <row r="210" spans="1:4" ht="20.399999999999999">
-      <c r="A210" s="30">
-        <v>44741</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="31">
-        <v>300</v>
-      </c>
-      <c r="D210" s="32">
-        <v>1885.1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="30.6">
+      <c r="B209" s="2"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="34"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="30"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="36"/>
+      <c r="D210" s="32"/>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="30"/>
-      <c r="B211" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C211" s="31"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="36"/>
       <c r="D211" s="32"/>
     </row>
-    <row r="212" spans="1:4" ht="30.6">
+    <row r="212" spans="1:4">
       <c r="A212" s="30"/>
-      <c r="B212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" s="31"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="36"/>
       <c r="D212" s="32"/>
     </row>
-    <row r="213" spans="1:4" ht="20.399999999999999">
-      <c r="A213" s="27">
-        <v>44741</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="28">
-        <v>150</v>
-      </c>
-      <c r="D213" s="29">
-        <v>1585.1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="30.6">
+    <row r="213" spans="1:4">
+      <c r="A213" s="27"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="33"/>
+      <c r="D213" s="34"/>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="27"/>
-      <c r="B214" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C214" s="28"/>
-      <c r="D214" s="29"/>
-    </row>
-    <row r="215" spans="1:4" ht="20.399999999999999">
+      <c r="B214" s="2"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="34"/>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="27"/>
-      <c r="B215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C215" s="28"/>
-      <c r="D215" s="29"/>
-    </row>
-    <row r="216" spans="1:4" ht="20.399999999999999">
-      <c r="A216" s="30">
-        <v>44715</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="31">
-        <v>150</v>
-      </c>
-      <c r="D216" s="32">
-        <v>1435.1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="30.6">
+      <c r="B215" s="2"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="34"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="30"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="36"/>
+      <c r="D216" s="32"/>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="30"/>
-      <c r="B217" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C217" s="31"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="36"/>
       <c r="D217" s="32"/>
     </row>
-    <row r="218" spans="1:4" ht="30.6">
+    <row r="218" spans="1:4">
       <c r="A218" s="30"/>
-      <c r="B218" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C218" s="31"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="36"/>
       <c r="D218" s="32"/>
     </row>
-    <row r="219" spans="1:4" ht="20.399999999999999">
-      <c r="A219" s="27">
-        <v>44715</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="28">
-        <v>300</v>
-      </c>
-      <c r="D219" s="29">
-        <v>1285.0999999999999</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="30.6">
+    <row r="219" spans="1:4">
+      <c r="A219" s="27"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="34"/>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="27"/>
-      <c r="B220" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C220" s="28"/>
-      <c r="D220" s="29"/>
-    </row>
-    <row r="221" spans="1:4" ht="40.799999999999997">
+      <c r="B220" s="2"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="34"/>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="27"/>
-      <c r="B221" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C221" s="28"/>
-      <c r="D221" s="29"/>
-    </row>
-    <row r="222" spans="1:4" ht="20.399999999999999">
-      <c r="A222" s="30">
-        <v>44714</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="31">
-        <v>150</v>
-      </c>
-      <c r="D222" s="32">
-        <v>985.1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="30.6">
+      <c r="B221" s="2"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="34"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="30"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="36"/>
+      <c r="D222" s="32"/>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="30"/>
-      <c r="B223" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C223" s="31"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="36"/>
       <c r="D223" s="32"/>
     </row>
-    <row r="224" spans="1:4" ht="30.6">
+    <row r="224" spans="1:4">
       <c r="A224" s="30"/>
-      <c r="B224" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C224" s="31"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="36"/>
       <c r="D224" s="32"/>
     </row>
-    <row r="225" spans="1:4" ht="30.6">
-      <c r="A225" s="27">
-        <v>44712</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C225" s="39">
-        <v>-6.5</v>
-      </c>
-      <c r="D225" s="29">
-        <v>835.1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="30.6">
+    <row r="225" spans="1:4">
+      <c r="A225" s="27"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="28"/>
+      <c r="D225" s="34"/>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="27"/>
-      <c r="B226" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C226" s="39"/>
-      <c r="D226" s="29"/>
-    </row>
-    <row r="227" spans="1:4" ht="30.6">
-      <c r="A227" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C227" s="41">
-        <v>-2.1</v>
-      </c>
-      <c r="D227" s="32">
-        <v>841.6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="30.6">
+      <c r="B226" s="2"/>
+      <c r="C226" s="28"/>
+      <c r="D226" s="34"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="30"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="32"/>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="30"/>
-      <c r="B228" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C228" s="41"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="31"/>
       <c r="D228" s="32"/>
     </row>
-    <row r="229" spans="1:4" ht="20.399999999999999">
-      <c r="A229" s="27">
-        <v>44712</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="28">
-        <v>150</v>
-      </c>
-      <c r="D229" s="29">
-        <v>843.7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="30.6">
+    <row r="229" spans="1:4">
+      <c r="A229" s="27"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="33"/>
+      <c r="D229" s="34"/>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="27"/>
-      <c r="B230" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C230" s="28"/>
-      <c r="D230" s="29"/>
-    </row>
-    <row r="231" spans="1:4" ht="30.6">
+      <c r="B230" s="2"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="34"/>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="27"/>
-      <c r="B231" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C231" s="28"/>
-      <c r="D231" s="29"/>
-    </row>
-    <row r="232" spans="1:4" ht="20.399999999999999">
-      <c r="A232" s="30">
-        <v>44708</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232" s="31">
-        <v>150</v>
-      </c>
-      <c r="D232" s="32">
-        <v>693.7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="30.6">
+      <c r="B231" s="2"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="34"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="30"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="32"/>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="30"/>
-      <c r="B233" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C233" s="31"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="36"/>
       <c r="D233" s="32"/>
     </row>
-    <row r="234" spans="1:4" ht="20.399999999999999">
+    <row r="234" spans="1:4">
       <c r="A234" s="30"/>
-      <c r="B234" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C234" s="31"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="36"/>
       <c r="D234" s="32"/>
     </row>
     <row r="235" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A235" s="27">
-        <v>44705</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C235" s="39">
-        <v>-341.67</v>
-      </c>
-      <c r="D235" s="29">
-        <v>543.70000000000005</v>
-      </c>
+      <c r="A235" s="27"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="28"/>
+      <c r="D235" s="34"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="27"/>
-      <c r="B236" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C236" s="39"/>
-      <c r="D236" s="29"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="28"/>
+      <c r="D236" s="34"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="27"/>
-      <c r="B237" s="2">
-        <v>10100086160634</v>
-      </c>
-      <c r="C237" s="39"/>
-      <c r="D237" s="29"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="28"/>
+      <c r="D237" s="34"/>
     </row>
     <row r="238" spans="1:4" ht="30.6" customHeight="1">
       <c r="A238" s="27"/>
-      <c r="B238" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C238" s="39"/>
-      <c r="D238" s="29"/>
-    </row>
-    <row r="239" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A239" s="33"/>
-      <c r="B239" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C239" s="40"/>
-      <c r="D239" s="35"/>
-    </row>
-    <row r="240" spans="1:4" ht="20.399999999999999">
-      <c r="A240" s="36">
-        <v>44685</v>
-      </c>
-      <c r="B240" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C240" s="37">
-        <v>150</v>
-      </c>
-      <c r="D240" s="38">
-        <v>885.37</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="30.6">
+      <c r="B238" s="2"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="34"/>
+    </row>
+    <row r="239" spans="1:4" ht="15" thickBot="1">
+      <c r="A239" s="40"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="41"/>
+      <c r="D239" s="42"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="37"/>
+      <c r="B240" s="17"/>
+      <c r="C240" s="38"/>
+      <c r="D240" s="39"/>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="30"/>
-      <c r="B241" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C241" s="31"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="36"/>
       <c r="D241" s="32"/>
     </row>
-    <row r="242" spans="1:4" ht="30.6">
+    <row r="242" spans="1:4">
       <c r="A242" s="30"/>
-      <c r="B242" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C242" s="31"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="36"/>
       <c r="D242" s="32"/>
     </row>
-    <row r="243" spans="1:4" ht="20.399999999999999">
-      <c r="A243" s="27">
-        <v>44684</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C243" s="28">
-        <v>150</v>
-      </c>
-      <c r="D243" s="29">
-        <v>735.37</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="20.399999999999999">
+    <row r="243" spans="1:4">
+      <c r="A243" s="27"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="33"/>
+      <c r="D243" s="34"/>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="27"/>
-      <c r="B244" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C244" s="28"/>
-      <c r="D244" s="29"/>
-    </row>
-    <row r="245" spans="1:4" ht="20.399999999999999">
-      <c r="A245" s="30">
-        <v>44684</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C245" s="31">
-        <v>150</v>
-      </c>
-      <c r="D245" s="32">
-        <v>585.37</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="20.399999999999999">
+      <c r="B244" s="2"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="34"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="30"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="32"/>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="30"/>
-      <c r="B246" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C246" s="31"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="36"/>
       <c r="D246" s="32"/>
     </row>
-    <row r="247" spans="1:4" ht="20.399999999999999">
-      <c r="A247" s="27">
-        <v>44682</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="28">
-        <v>150</v>
-      </c>
-      <c r="D247" s="29">
-        <v>435.37</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="30.6">
+    <row r="247" spans="1:4">
+      <c r="A247" s="27"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="33"/>
+      <c r="D247" s="34"/>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="27"/>
-      <c r="B248" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C248" s="28"/>
-      <c r="D248" s="29"/>
-    </row>
-    <row r="249" spans="1:4" ht="30.6">
+      <c r="B248" s="2"/>
+      <c r="C248" s="33"/>
+      <c r="D248" s="34"/>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="27"/>
-      <c r="B249" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C249" s="28"/>
-      <c r="D249" s="29"/>
-    </row>
-    <row r="250" spans="1:4" ht="20.399999999999999">
-      <c r="A250" s="30">
-        <v>44682</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="31">
-        <v>150</v>
-      </c>
-      <c r="D250" s="32">
-        <v>285.37</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="30.6">
+      <c r="B249" s="2"/>
+      <c r="C249" s="33"/>
+      <c r="D249" s="34"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="30"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="36"/>
+      <c r="D250" s="32"/>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="30"/>
-      <c r="B251" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C251" s="31"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="36"/>
       <c r="D251" s="32"/>
     </row>
-    <row r="252" spans="1:4" ht="30.6">
+    <row r="252" spans="1:4">
       <c r="A252" s="30"/>
-      <c r="B252" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C252" s="31"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="36"/>
       <c r="D252" s="32"/>
     </row>
-    <row r="253" spans="1:4" ht="30.6">
-      <c r="A253" s="27">
-        <v>44681</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C253" s="39">
-        <v>-6.5</v>
-      </c>
-      <c r="D253" s="29">
-        <v>135.37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="30.6">
+    <row r="253" spans="1:4">
+      <c r="A253" s="27"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="34"/>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="27"/>
-      <c r="B254" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C254" s="39"/>
-      <c r="D254" s="29"/>
-    </row>
-    <row r="255" spans="1:4" ht="20.399999999999999">
-      <c r="A255" s="30">
-        <v>44681</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C255" s="41">
-        <v>-0.13</v>
-      </c>
-      <c r="D255" s="32">
-        <v>141.87</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="30.6">
+      <c r="B254" s="2"/>
+      <c r="C254" s="28"/>
+      <c r="D254" s="34"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="30"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="31"/>
+      <c r="D255" s="32"/>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="30"/>
-      <c r="B256" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C256" s="41"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="31"/>
       <c r="D256" s="32"/>
     </row>
-    <row r="257" spans="1:4" ht="20.399999999999999">
-      <c r="A257" s="27">
-        <v>44680</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C257" s="28">
-        <v>150</v>
-      </c>
-      <c r="D257" s="29">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="30.6">
+    <row r="257" spans="1:4">
+      <c r="A257" s="27"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="34"/>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="27"/>
-      <c r="B258" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C258" s="28"/>
-      <c r="D258" s="29"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="33"/>
+      <c r="D258" s="34"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="27"/>
-      <c r="B259" s="2">
-        <v>10100068626137</v>
-      </c>
-      <c r="C259" s="28"/>
-      <c r="D259" s="29"/>
-    </row>
-    <row r="260" spans="1:4" ht="20.399999999999999">
+      <c r="B259" s="2"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="34"/>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="27"/>
-      <c r="B260" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C260" s="28"/>
-      <c r="D260" s="29"/>
-    </row>
-    <row r="261" spans="1:4" ht="30.6">
+      <c r="B260" s="2"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="34"/>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="27"/>
-      <c r="B261" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C261" s="28"/>
-      <c r="D261" s="29"/>
-    </row>
-    <row r="262" spans="1:4" ht="30.6">
-      <c r="A262" s="30">
-        <v>44651</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C262" s="41">
-        <v>-6.5</v>
-      </c>
-      <c r="D262" s="43">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="30.6">
+      <c r="B261" s="2"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="34"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="30"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="31"/>
+      <c r="D262" s="35"/>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="30"/>
-      <c r="B263" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C263" s="41"/>
-      <c r="D263" s="43"/>
-    </row>
-    <row r="264" spans="1:4" ht="30.6">
-      <c r="A264" s="27">
-        <v>44651</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C264" s="39">
-        <v>-1.5</v>
-      </c>
-      <c r="D264" s="42">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="30.6">
+      <c r="B263" s="1"/>
+      <c r="C263" s="31"/>
+      <c r="D263" s="35"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="27"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="29"/>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="27"/>
-      <c r="B265" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C265" s="39"/>
-      <c r="D265" s="42"/>
-    </row>
-    <row r="266" spans="1:4" ht="20.399999999999999">
-      <c r="A266" s="30">
-        <v>44644</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C266" s="41">
-        <v>-5</v>
-      </c>
-      <c r="D266" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="30.6">
+      <c r="B265" s="2"/>
+      <c r="C265" s="28"/>
+      <c r="D265" s="29"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="30"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="31"/>
+      <c r="D266" s="32"/>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="30"/>
-      <c r="B267" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C267" s="41"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="31"/>
       <c r="D267" s="32"/>
     </row>
-    <row r="268" spans="1:4" ht="20.399999999999999">
+    <row r="268" spans="1:4">
       <c r="A268" s="30"/>
-      <c r="B268" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C268" s="41"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="31"/>
       <c r="D268" s="32"/>
     </row>
-    <row r="269" spans="1:4" ht="21" thickBot="1">
-      <c r="A269" s="15">
-        <v>44644</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C269" s="18">
-        <v>5</v>
-      </c>
-      <c r="D269" s="16">
-        <v>5</v>
-      </c>
+    <row r="269" spans="1:4" ht="15" thickBot="1">
+      <c r="A269" s="15"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C239" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="273">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="D216:D218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="D219:D221"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
     <mergeCell ref="A264:A265"/>
     <mergeCell ref="C264:C265"/>
     <mergeCell ref="D264:D265"/>
@@ -3801,264 +2881,6 @@
     <mergeCell ref="A262:A263"/>
     <mergeCell ref="C262:C263"/>
     <mergeCell ref="D262:D263"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="D186:D188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="D222:D224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="D216:D218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="D219:D221"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="C235:C239"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4069,7 +2891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD116C0-D06B-4057-8F01-87DEDBE3B684}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4103,7 +2925,7 @@
         <v>45138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C4" s="14">
         <v>0.81</v>
@@ -4117,7 +2939,7 @@
         <v>45107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C5" s="12">
         <v>0.74</v>
@@ -4131,7 +2953,7 @@
         <v>45077</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C6" s="14">
         <v>0.75</v>
@@ -4145,7 +2967,7 @@
         <v>45046</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C7" s="12">
         <v>0.72</v>
@@ -4159,7 +2981,7 @@
         <v>45016</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C8" s="14">
         <v>0.75</v>
@@ -4173,7 +2995,7 @@
         <v>44985</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C9" s="12">
         <v>0.67</v>
@@ -4187,7 +3009,7 @@
         <v>44957</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C10" s="14">
         <v>0.74</v>
@@ -4201,7 +3023,7 @@
         <v>44926</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C11" s="12">
         <v>0.7</v>
@@ -4215,7 +3037,7 @@
         <v>44895</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C12" s="14">
         <v>0.62</v>
@@ -4229,7 +3051,7 @@
         <v>44865</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C13" s="12">
         <v>0.5</v>
@@ -4243,7 +3065,7 @@
         <v>44834</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C14" s="14">
         <v>0.41</v>
@@ -4257,7 +3079,7 @@
         <v>44804</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C15" s="12">
         <v>0.37</v>
@@ -4271,7 +3093,7 @@
         <v>44773</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C16" s="14">
         <v>0.27</v>
@@ -4285,7 +3107,7 @@
         <v>44742</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C17" s="12">
         <v>0.21</v>
@@ -4299,7 +3121,7 @@
         <v>44712</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C18" s="14">
         <v>0.12</v>
@@ -4313,7 +3135,7 @@
         <v>44681</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C19" s="12">
         <v>0.02</v>
@@ -4327,7 +3149,7 @@
         <v>44681</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9">
         <v>-0.02</v>
@@ -4341,7 +3163,7 @@
         <v>44681</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C21" s="12">
         <v>0.02</v>
@@ -4355,9 +3177,9 @@
         <v>44645</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="31">
+        <v>88</v>
+      </c>
+      <c r="C22" s="36">
         <v>145</v>
       </c>
       <c r="D22" s="32">
@@ -4367,9 +3189,9 @@
     <row r="23" spans="1:4" ht="30.6">
       <c r="A23" s="30"/>
       <c r="B23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="C23" s="36"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="30.6">
@@ -4377,46 +3199,46 @@
         <v>44644</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="28">
+        <v>71</v>
+      </c>
+      <c r="C24" s="33">
         <v>290</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="34">
         <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="27"/>
       <c r="B25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+        <v>90</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="27"/>
       <c r="B26" s="2">
         <v>10100086160634</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="30.6">
       <c r="A27" s="27"/>
       <c r="B27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A28" s="33"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+        <v>91</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4437,7 +3259,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
@@ -4453,25 +3275,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4489,13 +3311,13 @@
         <v>9955</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4513,13 +3335,13 @@
         <v>9805</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4537,13 +3359,13 @@
         <v>9655</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4561,13 +3383,13 @@
         <v>8155</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4585,13 +3407,13 @@
         <v>8005</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4609,13 +3431,13 @@
         <v>7855</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4632,13 +3454,13 @@
         <v>7705</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4655,13 +3477,13 @@
         <v>10015</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4678,13 +3500,13 @@
         <v>9865</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4701,13 +3523,13 @@
         <v>9565</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4724,13 +3546,13 @@
         <v>9415</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4747,13 +3569,13 @@
         <v>9265</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4770,13 +3592,13 @@
         <v>9115</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4793,13 +3615,13 @@
         <v>8965</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4816,13 +3638,13 @@
         <v>8665</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4839,13 +3661,13 @@
         <v>8515</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4862,13 +3684,13 @@
         <v>8365</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4885,13 +3707,13 @@
         <v>8215</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4908,13 +3730,13 @@
         <v>8065</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4931,13 +3753,13 @@
         <v>7915</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4954,13 +3776,13 @@
         <v>7765</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4977,13 +3799,13 @@
         <v>7615</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5000,13 +3822,13 @@
         <v>7465</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5023,13 +3845,13 @@
         <v>7165</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5046,13 +3868,13 @@
         <v>7015</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5069,13 +3891,13 @@
         <v>6865</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5092,13 +3914,13 @@
         <v>6715</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5115,13 +3937,13 @@
         <v>6565</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5138,13 +3960,13 @@
         <v>6415</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5161,13 +3983,13 @@
         <v>6265</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5184,13 +4006,13 @@
         <v>6115</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5207,13 +4029,13 @@
         <v>5965</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5230,13 +4052,13 @@
         <v>5665</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5253,13 +4075,13 @@
         <v>5515</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5276,13 +4098,13 @@
         <v>5365</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5299,13 +4121,13 @@
         <v>5215</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5322,13 +4144,13 @@
         <v>5065</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5345,13 +4167,13 @@
         <v>4915</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5368,13 +4190,13 @@
         <v>4765</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5391,13 +4213,13 @@
         <v>4615</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5414,13 +4236,13 @@
         <v>4465</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5437,13 +4259,13 @@
         <v>4165</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5460,13 +4282,13 @@
         <v>4015</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5483,13 +4305,13 @@
         <v>3865</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5506,13 +4328,13 @@
         <v>3715</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5529,13 +4351,13 @@
         <v>3565</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5552,13 +4374,13 @@
         <v>3265</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5575,13 +4397,13 @@
         <v>3115</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5598,13 +4420,13 @@
         <v>2965</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5621,13 +4443,13 @@
         <v>2815</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5644,13 +4466,13 @@
         <v>2665</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5667,13 +4489,13 @@
         <v>2515</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5690,13 +4512,13 @@
         <v>2365</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5713,13 +4535,13 @@
         <v>1765</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5736,13 +4558,13 @@
         <v>1615</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5759,13 +4581,13 @@
         <v>1465</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5782,14 +4604,14 @@
         <v>1315</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F58" t="str">
         <f>IF(E58="Bank Charges", "V")</f>
         <v>V</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5806,13 +4628,13 @@
         <v>1321.5</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5829,13 +4651,13 @@
         <v>1171.5</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5852,13 +4674,13 @@
         <v>1021.5</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5875,13 +4697,13 @@
         <v>871.5</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5898,13 +4720,13 @@
         <v>878</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5921,13 +4743,13 @@
         <v>878.6</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5944,13 +4766,13 @@
         <v>578.6</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5967,13 +4789,13 @@
         <v>428.6</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5990,13 +4812,13 @@
         <v>2478.6</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G67" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6013,13 +4835,13 @@
         <v>2328.6</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6036,13 +4858,13 @@
         <v>2178.6</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6059,13 +4881,13 @@
         <v>2028.6</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G70" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6082,13 +4904,13 @@
         <v>2035.1</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6105,13 +4927,13 @@
         <v>1885.1</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G72" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6128,13 +4950,13 @@
         <v>1585.1</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6151,13 +4973,13 @@
         <v>1435.1</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6174,13 +4996,13 @@
         <v>1285.0999999999999</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6197,13 +5019,13 @@
         <v>985.1</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6220,13 +5042,13 @@
         <v>835.1</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F77" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G77" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6243,13 +5065,13 @@
         <v>841.6</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G78" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6266,13 +5088,13 @@
         <v>843.7</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6289,13 +5111,13 @@
         <v>693.7</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6312,10 +5134,10 @@
         <v>543.70000000000005</v>
       </c>
       <c r="E81" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6332,13 +5154,13 @@
         <v>885.37</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F82" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6355,10 +5177,10 @@
         <v>735.37</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F83" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6375,10 +5197,10 @@
         <v>585.37</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6395,13 +5217,13 @@
         <v>435.37</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6418,13 +5240,13 @@
         <v>285.37</v>
       </c>
       <c r="E86" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G86" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6441,13 +5263,13 @@
         <v>135.37</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F87" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G87" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6464,13 +5286,13 @@
         <v>141.87</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
@@ -6487,13 +5309,13 @@
         <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G89" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6510,13 +5332,13 @@
         <v>-8</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G90" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6533,13 +5355,13 @@
         <v>-1.5</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6556,10 +5378,10 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="G92" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6576,10 +5398,10 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6594,7 +5416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FECBA6-F4F0-4DBA-A3FA-0614C9ACA0F7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/20230814_raw_data_100087848963.xlsx
+++ b/20230814_raw_data_100087848963.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\DataAnalystCertificate\projects\ShodaClose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CF06C-6E93-4557-8E50-CA35095307EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41673102-36DD-48D1-9233-EAE5EE8CB4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,31 +641,28 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,16 +674,19 @@
     <xf numFmtId="8" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,7 +977,7 @@
   <dimension ref="A1:G269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -999,1605 +999,1605 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="30"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="36"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="30"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="36"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="27"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="27"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="27"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="30"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="36"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="30"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="36"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="30"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="36"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="27"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="27"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="27"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="30"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="36"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="30"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="36"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="30"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="27"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="27"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A19" s="40"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A20" s="30"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="31"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="30.6" customHeight="1">
       <c r="A21" s="30"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="31"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="30"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="31"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="27"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="27"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="27"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="30"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="36"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="30"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="30"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="36"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="27"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="27"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="27"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="36"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="36"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="36"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="27"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="27"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="27"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="30"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="36"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="30"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="36"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="30"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="36"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="27"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="27"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="27"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="34"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="30"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="30"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="30"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="27"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="27"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="27"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="30"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="36"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="30"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="36"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="30"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="36"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="27"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="27"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="27"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="30"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="36"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="30"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="36"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="30"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="36"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="27"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="27"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="27"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="30"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="36"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="30"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="36"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="30"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="36"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="27"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="27"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="27"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="30"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="36"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="32"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="30"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="30"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="36"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="27"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="34"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="27"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="34"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="27"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="30"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="32"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="30"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="36"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="30"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="36"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="32"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="27"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="27"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="27"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="30"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="32"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="30"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="36"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="32"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="30"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="36"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="32"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="27"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="27"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="29"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="27"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="34"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="30"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="36"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="30"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="36"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="30"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="36"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="27"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="34"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="27"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="34"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="27"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="34"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="29"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="30"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="36"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="32"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="30"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="36"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="32"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="30"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="36"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="32"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="27"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="34"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="29"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="27"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="34"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="27"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="34"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="30"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="36"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="32"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="30"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="36"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="30"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="36"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="32"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="27"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="29"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="27"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="34"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="29"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="27"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="34"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="30"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="36"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="32"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="30"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="36"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="32"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="30"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="36"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="32"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="27"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="34"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="29"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="27"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="34"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="27"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="29"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="30"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="36"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="32"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="30"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="36"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="32"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="30"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="36"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="32"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="27"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="34"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="29"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="27"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="34"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="27"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="34"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="30"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="36"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="32"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="30"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="36"/>
+      <c r="C118" s="31"/>
       <c r="D118" s="32"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="30"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="36"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="32"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="27"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="34"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="29"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="27"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="34"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="27"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="34"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="29"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="30"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="36"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="32"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="30"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="36"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="32"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="30"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="36"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="32"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="27"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="34"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="29"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="27"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="34"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="29"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="27"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="34"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="29"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="30"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="36"/>
+      <c r="C129" s="31"/>
       <c r="D129" s="32"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="30"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="36"/>
+      <c r="C130" s="31"/>
       <c r="D130" s="32"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="30"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="36"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="32"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="27"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="34"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="29"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="27"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="34"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="29"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="27"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="34"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="29"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="30"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="36"/>
+      <c r="C135" s="31"/>
       <c r="D135" s="32"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="30"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="36"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="32"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="30"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="36"/>
+      <c r="C137" s="31"/>
       <c r="D137" s="32"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="27"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="34"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="29"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="27"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="34"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="29"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="27"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="34"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="29"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="30"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="36"/>
+      <c r="C141" s="31"/>
       <c r="D141" s="32"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="30"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="36"/>
+      <c r="C142" s="31"/>
       <c r="D142" s="32"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="30"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="36"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="32"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="27"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="34"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="29"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="27"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="34"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="29"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="27"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="34"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="29"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="30"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="36"/>
+      <c r="C147" s="31"/>
       <c r="D147" s="32"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="30"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="36"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="32"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="30"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="36"/>
+      <c r="C149" s="31"/>
       <c r="D149" s="32"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="27"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="34"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="29"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="27"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="34"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="29"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="27"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="34"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="29"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="30"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="36"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="32"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="30"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="36"/>
+      <c r="C154" s="31"/>
       <c r="D154" s="32"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="30"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="36"/>
+      <c r="C155" s="31"/>
       <c r="D155" s="32"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="27"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="34"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="29"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="27"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="34"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="29"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="27"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="34"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="29"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="30"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="36"/>
+      <c r="C159" s="31"/>
       <c r="D159" s="32"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="30"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="36"/>
+      <c r="C160" s="31"/>
       <c r="D160" s="32"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="30"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="36"/>
+      <c r="C161" s="31"/>
       <c r="D161" s="32"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="27"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="29"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="27"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="34"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="29"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="27"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="34"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="29"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="30"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="36"/>
+      <c r="C165" s="31"/>
       <c r="D165" s="32"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="30"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="36"/>
+      <c r="C166" s="31"/>
       <c r="D166" s="32"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="30"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="36"/>
+      <c r="C167" s="31"/>
       <c r="D167" s="32"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="27"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="34"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="29"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="27"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="29"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="27"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="34"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="29"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="30"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="31"/>
+      <c r="C171" s="41"/>
       <c r="D171" s="32"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="30"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="31"/>
+      <c r="C172" s="41"/>
       <c r="D172" s="32"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="27"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="34"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="29"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="27"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="34"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="29"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="27"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="29"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="30"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="36"/>
+      <c r="C176" s="31"/>
       <c r="D176" s="32"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="30"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="36"/>
+      <c r="C177" s="31"/>
       <c r="D177" s="32"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="30"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="36"/>
+      <c r="C178" s="31"/>
       <c r="D178" s="32"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="27"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="34"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="29"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="27"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="34"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="29"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="27"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="34"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="29"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="30"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="31"/>
+      <c r="C182" s="41"/>
       <c r="D182" s="32"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="30"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="31"/>
+      <c r="C183" s="41"/>
       <c r="D183" s="32"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="27"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="34"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="29"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="27"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="34"/>
+      <c r="C185" s="39"/>
+      <c r="D185" s="29"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="30"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="36"/>
+      <c r="C186" s="31"/>
       <c r="D186" s="32"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="30"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="36"/>
+      <c r="C187" s="31"/>
       <c r="D187" s="32"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="30"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="36"/>
+      <c r="C188" s="31"/>
       <c r="D188" s="32"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="27"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="29"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="27"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="34"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="29"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="27"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="34"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="29"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="30"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="31"/>
+      <c r="C192" s="41"/>
       <c r="D192" s="32"/>
     </row>
     <row r="193" spans="1:4" ht="40.799999999999997" customHeight="1">
       <c r="A193" s="30"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="31"/>
+      <c r="C193" s="41"/>
       <c r="D193" s="32"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="30"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="31"/>
+      <c r="C194" s="41"/>
       <c r="D194" s="32"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="30"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="31"/>
+      <c r="C195" s="41"/>
       <c r="D195" s="32"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="27"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="34"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="29"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="27"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="34"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="29"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="27"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="29"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="30"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="36"/>
+      <c r="C199" s="31"/>
       <c r="D199" s="32"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="30"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="36"/>
+      <c r="C200" s="31"/>
       <c r="D200" s="32"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="30"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="36"/>
+      <c r="C201" s="31"/>
       <c r="D201" s="32"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="27"/>
       <c r="B202" s="2"/>
-      <c r="C202" s="33"/>
-      <c r="D202" s="34"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="29"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="27"/>
       <c r="B203" s="2"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="34"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="29"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="27"/>
       <c r="B204" s="2"/>
-      <c r="C204" s="33"/>
-      <c r="D204" s="34"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="29"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="30"/>
       <c r="B205" s="1"/>
-      <c r="C205" s="31"/>
+      <c r="C205" s="41"/>
       <c r="D205" s="32"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="30"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="31"/>
+      <c r="C206" s="41"/>
       <c r="D206" s="32"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="27"/>
       <c r="B207" s="2"/>
-      <c r="C207" s="33"/>
-      <c r="D207" s="34"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="29"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="27"/>
       <c r="B208" s="2"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="34"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="29"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="27"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="33"/>
-      <c r="D209" s="34"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="29"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="30"/>
       <c r="B210" s="1"/>
-      <c r="C210" s="36"/>
+      <c r="C210" s="31"/>
       <c r="D210" s="32"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="30"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="36"/>
+      <c r="C211" s="31"/>
       <c r="D211" s="32"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="30"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="36"/>
+      <c r="C212" s="31"/>
       <c r="D212" s="32"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="27"/>
       <c r="B213" s="2"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="34"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="29"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="27"/>
       <c r="B214" s="2"/>
-      <c r="C214" s="33"/>
-      <c r="D214" s="34"/>
+      <c r="C214" s="28"/>
+      <c r="D214" s="29"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="27"/>
       <c r="B215" s="2"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="34"/>
+      <c r="C215" s="28"/>
+      <c r="D215" s="29"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="30"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="36"/>
+      <c r="C216" s="31"/>
       <c r="D216" s="32"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="30"/>
       <c r="B217" s="1"/>
-      <c r="C217" s="36"/>
+      <c r="C217" s="31"/>
       <c r="D217" s="32"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="30"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="36"/>
+      <c r="C218" s="31"/>
       <c r="D218" s="32"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="27"/>
       <c r="B219" s="2"/>
-      <c r="C219" s="33"/>
-      <c r="D219" s="34"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="29"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="27"/>
       <c r="B220" s="2"/>
-      <c r="C220" s="33"/>
-      <c r="D220" s="34"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="29"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="27"/>
       <c r="B221" s="2"/>
-      <c r="C221" s="33"/>
-      <c r="D221" s="34"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="29"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="30"/>
       <c r="B222" s="1"/>
-      <c r="C222" s="36"/>
+      <c r="C222" s="31"/>
       <c r="D222" s="32"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="30"/>
       <c r="B223" s="1"/>
-      <c r="C223" s="36"/>
+      <c r="C223" s="31"/>
       <c r="D223" s="32"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="30"/>
       <c r="B224" s="1"/>
-      <c r="C224" s="36"/>
+      <c r="C224" s="31"/>
       <c r="D224" s="32"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="27"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="34"/>
+      <c r="C225" s="39"/>
+      <c r="D225" s="29"/>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="27"/>
       <c r="B226" s="2"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="34"/>
+      <c r="C226" s="39"/>
+      <c r="D226" s="29"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="30"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="31"/>
+      <c r="C227" s="41"/>
       <c r="D227" s="32"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="30"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="31"/>
+      <c r="C228" s="41"/>
       <c r="D228" s="32"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="27"/>
       <c r="B229" s="2"/>
-      <c r="C229" s="33"/>
-      <c r="D229" s="34"/>
+      <c r="C229" s="28"/>
+      <c r="D229" s="29"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="27"/>
       <c r="B230" s="2"/>
-      <c r="C230" s="33"/>
-      <c r="D230" s="34"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="29"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="27"/>
       <c r="B231" s="2"/>
-      <c r="C231" s="33"/>
-      <c r="D231" s="34"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="29"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="30"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="36"/>
+      <c r="C232" s="31"/>
       <c r="D232" s="32"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="30"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="36"/>
+      <c r="C233" s="31"/>
       <c r="D233" s="32"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="30"/>
       <c r="B234" s="1"/>
-      <c r="C234" s="36"/>
+      <c r="C234" s="31"/>
       <c r="D234" s="32"/>
     </row>
     <row r="235" spans="1:4" ht="30.6" customHeight="1">
       <c r="A235" s="27"/>
       <c r="B235" s="2"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="34"/>
+      <c r="C235" s="39"/>
+      <c r="D235" s="29"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="27"/>
       <c r="B236" s="2"/>
-      <c r="C236" s="28"/>
-      <c r="D236" s="34"/>
+      <c r="C236" s="39"/>
+      <c r="D236" s="29"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="27"/>
       <c r="B237" s="2"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="34"/>
+      <c r="C237" s="39"/>
+      <c r="D237" s="29"/>
     </row>
     <row r="238" spans="1:4" ht="30.6" customHeight="1">
       <c r="A238" s="27"/>
       <c r="B238" s="2"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="34"/>
+      <c r="C238" s="39"/>
+      <c r="D238" s="29"/>
     </row>
     <row r="239" spans="1:4" ht="15" thickBot="1">
-      <c r="A239" s="40"/>
+      <c r="A239" s="33"/>
       <c r="B239" s="7"/>
-      <c r="C239" s="41"/>
-      <c r="D239" s="42"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="37"/>
+      <c r="A240" s="36"/>
       <c r="B240" s="17"/>
-      <c r="C240" s="38"/>
-      <c r="D240" s="39"/>
+      <c r="C240" s="37"/>
+      <c r="D240" s="38"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="30"/>
       <c r="B241" s="1"/>
-      <c r="C241" s="36"/>
+      <c r="C241" s="31"/>
       <c r="D241" s="32"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="30"/>
       <c r="B242" s="1"/>
-      <c r="C242" s="36"/>
+      <c r="C242" s="31"/>
       <c r="D242" s="32"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="27"/>
       <c r="B243" s="2"/>
-      <c r="C243" s="33"/>
-      <c r="D243" s="34"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="29"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="27"/>
       <c r="B244" s="2"/>
-      <c r="C244" s="33"/>
-      <c r="D244" s="34"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="29"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="30"/>
       <c r="B245" s="1"/>
-      <c r="C245" s="36"/>
+      <c r="C245" s="31"/>
       <c r="D245" s="32"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="30"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="36"/>
+      <c r="C246" s="31"/>
       <c r="D246" s="32"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="27"/>
       <c r="B247" s="2"/>
-      <c r="C247" s="33"/>
-      <c r="D247" s="34"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="29"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="27"/>
       <c r="B248" s="2"/>
-      <c r="C248" s="33"/>
-      <c r="D248" s="34"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="29"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="27"/>
       <c r="B249" s="2"/>
-      <c r="C249" s="33"/>
-      <c r="D249" s="34"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="29"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="30"/>
       <c r="B250" s="1"/>
-      <c r="C250" s="36"/>
+      <c r="C250" s="31"/>
       <c r="D250" s="32"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="30"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="36"/>
+      <c r="C251" s="31"/>
       <c r="D251" s="32"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="30"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="36"/>
+      <c r="C252" s="31"/>
       <c r="D252" s="32"/>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="27"/>
       <c r="B253" s="2"/>
-      <c r="C253" s="28"/>
-      <c r="D253" s="34"/>
+      <c r="C253" s="39"/>
+      <c r="D253" s="29"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="27"/>
       <c r="B254" s="2"/>
-      <c r="C254" s="28"/>
-      <c r="D254" s="34"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="29"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="30"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="31"/>
+      <c r="C255" s="41"/>
       <c r="D255" s="32"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="30"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="31"/>
+      <c r="C256" s="41"/>
       <c r="D256" s="32"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="27"/>
       <c r="B257" s="2"/>
-      <c r="C257" s="33"/>
-      <c r="D257" s="34"/>
+      <c r="C257" s="28"/>
+      <c r="D257" s="29"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="27"/>
       <c r="B258" s="2"/>
-      <c r="C258" s="33"/>
-      <c r="D258" s="34"/>
+      <c r="C258" s="28"/>
+      <c r="D258" s="29"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="27"/>
       <c r="B259" s="2"/>
-      <c r="C259" s="33"/>
-      <c r="D259" s="34"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="29"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="27"/>
       <c r="B260" s="2"/>
-      <c r="C260" s="33"/>
-      <c r="D260" s="34"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="29"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="27"/>
       <c r="B261" s="2"/>
-      <c r="C261" s="33"/>
-      <c r="D261" s="34"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="29"/>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="30"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="31"/>
-      <c r="D262" s="35"/>
+      <c r="C262" s="41"/>
+      <c r="D262" s="43"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="30"/>
       <c r="B263" s="1"/>
-      <c r="C263" s="31"/>
-      <c r="D263" s="35"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="43"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="27"/>
       <c r="B264" s="2"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="29"/>
+      <c r="C264" s="39"/>
+      <c r="D264" s="42"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="27"/>
       <c r="B265" s="2"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="29"/>
+      <c r="C265" s="39"/>
+      <c r="D265" s="42"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="30"/>
       <c r="B266" s="1"/>
-      <c r="C266" s="31"/>
+      <c r="C266" s="41"/>
       <c r="D266" s="32"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="30"/>
       <c r="B267" s="1"/>
-      <c r="C267" s="31"/>
+      <c r="C267" s="41"/>
       <c r="D267" s="32"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="30"/>
       <c r="B268" s="1"/>
-      <c r="C268" s="31"/>
+      <c r="C268" s="41"/>
       <c r="D268" s="32"/>
     </row>
     <row r="269" spans="1:4" ht="15" thickBot="1">
@@ -2608,264 +2608,6 @@
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="C235:C239"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="D222:D224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="D216:D218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="D219:D221"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="D186:D188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:D244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
     <mergeCell ref="A264:A265"/>
     <mergeCell ref="C264:C265"/>
     <mergeCell ref="D264:D265"/>
@@ -2881,6 +2623,264 @@
     <mergeCell ref="A262:A263"/>
     <mergeCell ref="C262:C263"/>
     <mergeCell ref="D262:D263"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="D216:D218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="D219:D221"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3179,7 +3179,7 @@
       <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="31">
         <v>145</v>
       </c>
       <c r="D22" s="32">
@@ -3191,7 +3191,7 @@
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="30.6">
@@ -3201,10 +3201,10 @@
       <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="28">
         <v>290</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="29">
         <v>290</v>
       </c>
     </row>
@@ -3213,32 +3213,32 @@
       <c r="B25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="27"/>
       <c r="B26" s="2">
         <v>10100086160634</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="30.6">
       <c r="A27" s="27"/>
       <c r="B27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="31.2" thickBot="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
